--- a/02Data/5006_final_微博数据集.xlsx
+++ b/02Data/5006_final_微博数据集.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hongtao45\Desktop\weibo-analysis\02Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C91FEC-8D11-43FD-8E33-6E47AA8B0F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DBFD965-9738-4957-A822-71AF4CCECC32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{FEA9888E-5E6F-4015-A0F8-F691D3319DC0}"/>
   </bookViews>
@@ -148,9 +148,6 @@
     <t>#路况发布#受暴雨天气影响，G60沪昆高速梨温段东乡、余江、鹰潭西、鹰潭东、贵溪、弋阳、杨梅岭入口封闭。~w@江西交通广播</t>
   </si>
   <si>
-    <t>首报：截至11时56分，受暴雨天气影响，应交警要求，G60沪昆高速梨温段东乡、余江、鹰潭西、鹰潭东、贵溪、弋阳、杨梅岭站入口封闭。@江西高速@江西交通12328</t>
-  </si>
-  <si>
     <t>#路况发布#受暴雨天气影响，G60沪昆高速梨温段玉山、广丰入口封闭。~w@江西交通广播</t>
   </si>
   <si>
@@ -314,9 +311,6 @@
   </si>
   <si>
     <t>首报：截至16时27分，受暴雨天气影响，应交警要求，G60沪昆高速梨温段玉山、广丰站入口往南昌方向封闭。@江西高速@江西交通12328</t>
-  </si>
-  <si>
-    <t>#路况提示#截至16时11分，受暴雨天气影响，应交警要求，S81铜宜高速万宜段万载南站入口封闭，S81铜宜高速铜万段三兴站、罗城站、芳溪站、黄岗站、铜鼓东入口封闭。—ZGL@江西高速@江西交通@江西交通服务热线</t>
   </si>
   <si>
     <t>#路况发布#受暴雨天气影响，S81万宜高速万载南入口封闭，S81铜万高速三兴、罗城、芳溪、黄岗、铜鼓东入口封闭。--z@江西交通广播</t>
@@ -3905,6 +3899,14 @@
   </si>
   <si>
     <t>#深圳天气剧透#雨还没完，再忍一下受#台风卢碧#外围环流和季风共同影响，预计明天凌晨开始降雨加强，有暴雨，大家注意及时关注本菌最新消息，雨天出行注意交通安全~今晚至上半夜以短时阵雨为主，不会还有人不带伞吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首报：截至11时56分，受暴雨天气影响，应交警要求，G60沪昆高速梨温段东乡、余江、鹰潭西、鹰潭东、贵溪、弋阳、杨梅岭站入口封闭。@江西高速@江西交通12328</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#路况提示#截至16时11分，受暴雨天气影响，应交警要求，S81铜宜高速万宜段万载南站入口封闭，S81铜宜高速铜万段三兴站、罗城站、芳溪站、黄岗站、铜鼓东入口封闭。—ZGL@江西高速@江西交通@江西交通服务热线</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4318,8 +4320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38BE3042-707E-4998-8D37-29D3C5F0AD43}">
   <dimension ref="A1:B1094"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1078" workbookViewId="0">
-      <selection activeCell="A1099" sqref="A1099"/>
+    <sheetView tabSelected="1" topLeftCell="A197" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="A205" sqref="A205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4333,7 +4335,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -4634,7 +4636,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>1046</v>
       </c>
       <c r="B39" s="4">
         <v>1</v>
@@ -4642,7 +4644,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B40" s="4">
         <v>1</v>
@@ -4650,7 +4652,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B41" s="4">
         <v>1</v>
@@ -4658,7 +4660,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B42" s="4">
         <v>1</v>
@@ -4666,7 +4668,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B43" s="4">
         <v>1</v>
@@ -4674,7 +4676,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B44" s="4">
         <v>1</v>
@@ -4682,7 +4684,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B45" s="4">
         <v>1</v>
@@ -4690,7 +4692,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B46" s="4">
         <v>1</v>
@@ -4698,7 +4700,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B47" s="4">
         <v>1</v>
@@ -4706,7 +4708,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B48" s="4">
         <v>1</v>
@@ -4714,7 +4716,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B49" s="4">
         <v>1</v>
@@ -4722,7 +4724,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B50" s="4">
         <v>1</v>
@@ -4730,7 +4732,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B51" s="4">
         <v>1</v>
@@ -4738,7 +4740,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B52" s="4">
         <v>1</v>
@@ -4746,7 +4748,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" s="4">
         <v>1</v>
@@ -4754,7 +4756,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" s="4">
         <v>1</v>
@@ -4762,7 +4764,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" s="4">
         <v>1</v>
@@ -4770,7 +4772,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" s="4">
         <v>1</v>
@@ -4778,7 +4780,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" s="4">
         <v>1</v>
@@ -4786,7 +4788,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" s="4">
         <v>1</v>
@@ -4794,7 +4796,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" s="4">
         <v>1</v>
@@ -4802,7 +4804,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" s="4">
         <v>1</v>
@@ -4810,7 +4812,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" s="4">
         <v>1</v>
@@ -4818,7 +4820,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" s="4">
         <v>1</v>
@@ -4826,7 +4828,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63" s="4">
         <v>1</v>
@@ -4834,7 +4836,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" s="4">
         <v>1</v>
@@ -4842,7 +4844,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" s="4">
         <v>1</v>
@@ -4850,7 +4852,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" s="4">
         <v>0</v>
@@ -4858,7 +4860,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" s="4">
         <v>1</v>
@@ -4866,7 +4868,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" s="4">
         <v>0</v>
@@ -4874,7 +4876,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69" s="4">
         <v>1</v>
@@ -4882,7 +4884,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70" s="4">
         <v>1</v>
@@ -4890,7 +4892,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" s="4">
         <v>1</v>
@@ -4898,7 +4900,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72" s="4">
         <v>1</v>
@@ -4906,7 +4908,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73" s="4">
         <v>1</v>
@@ -4914,7 +4916,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74" s="4">
         <v>1</v>
@@ -4922,7 +4924,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75" s="4">
         <v>1</v>
@@ -4930,7 +4932,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76" s="4">
         <v>1</v>
@@ -4938,7 +4940,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77" s="4">
         <v>1</v>
@@ -4946,7 +4948,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78" s="4">
         <v>1</v>
@@ -4954,7 +4956,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79" s="4">
         <v>1</v>
@@ -4962,7 +4964,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80" s="4">
         <v>1</v>
@@ -4970,7 +4972,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81" s="4">
         <v>1</v>
@@ -4978,7 +4980,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82" s="4">
         <v>1</v>
@@ -4986,7 +4988,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83" s="4">
         <v>1</v>
@@ -4994,7 +4996,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84" s="4">
         <v>1</v>
@@ -5002,7 +5004,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85" s="4">
         <v>1</v>
@@ -5010,7 +5012,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86" s="4">
         <v>1</v>
@@ -5018,7 +5020,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B87" s="4">
         <v>1</v>
@@ -5026,7 +5028,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B88" s="4">
         <v>1</v>
@@ -5034,7 +5036,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B89" s="4">
         <v>1</v>
@@ -5042,7 +5044,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B90" s="4">
         <v>1</v>
@@ -5050,7 +5052,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B91" s="4">
         <v>1</v>
@@ -5058,7 +5060,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B92" s="4">
         <v>1</v>
@@ -5066,7 +5068,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B93" s="4">
         <v>1</v>
@@ -5074,7 +5076,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B94" s="4">
         <v>1</v>
@@ -5082,7 +5084,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>93</v>
+        <v>1047</v>
       </c>
       <c r="B95" s="4">
         <v>1</v>
@@ -5090,7 +5092,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B96" s="4">
         <v>1</v>
@@ -5098,7 +5100,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B97" s="4">
         <v>1</v>
@@ -5106,7 +5108,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B98" s="4">
         <v>1</v>
@@ -5114,7 +5116,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B99" s="4">
         <v>1</v>
@@ -5122,7 +5124,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B100" s="4">
         <v>1</v>
@@ -5130,7 +5132,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B101" s="4">
         <v>1</v>
@@ -5138,7 +5140,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B102" s="4">
         <v>1</v>
@@ -5146,7 +5148,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B103" s="4">
         <v>0</v>
@@ -5154,7 +5156,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B104" s="4">
         <v>1</v>
@@ -5162,7 +5164,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B105" s="4">
         <v>1</v>
@@ -5170,7 +5172,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B106" s="4">
         <v>0</v>
@@ -5178,7 +5180,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B107" s="4">
         <v>0</v>
@@ -5186,7 +5188,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B108" s="4">
         <v>1</v>
@@ -5194,7 +5196,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B109" s="4">
         <v>1</v>
@@ -5202,7 +5204,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B110" s="4">
         <v>1</v>
@@ -5210,7 +5212,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B111" s="4">
         <v>1</v>
@@ -5218,7 +5220,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B112" s="4">
         <v>1</v>
@@ -5226,7 +5228,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B113" s="4">
         <v>1</v>
@@ -5234,7 +5236,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B114" s="4">
         <v>1</v>
@@ -5242,7 +5244,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B115" s="4">
         <v>1</v>
@@ -5250,7 +5252,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B116" s="4">
         <v>1</v>
@@ -5258,7 +5260,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B117" s="4">
         <v>1</v>
@@ -5266,7 +5268,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B118" s="4">
         <v>1</v>
@@ -5274,7 +5276,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B119" s="4">
         <v>0</v>
@@ -5282,7 +5284,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B120" s="4">
         <v>0</v>
@@ -5290,7 +5292,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B121" s="4">
         <v>0</v>
@@ -5298,7 +5300,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B122" s="4">
         <v>0</v>
@@ -5314,7 +5316,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B124" s="4">
         <v>0</v>
@@ -5322,7 +5324,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B125" s="4">
         <v>0</v>
@@ -5330,7 +5332,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B126" s="4">
         <v>0</v>
@@ -5338,7 +5340,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B127" s="4">
         <v>0</v>
@@ -5346,7 +5348,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B128" s="4">
         <v>0</v>
@@ -5354,7 +5356,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B129" s="4">
         <v>0</v>
@@ -5362,7 +5364,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B130" s="4">
         <v>0</v>
@@ -5370,7 +5372,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B131" s="4">
         <v>0</v>
@@ -5378,7 +5380,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B132" s="4">
         <v>0</v>
@@ -5386,7 +5388,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B133" s="4">
         <v>0</v>
@@ -5394,7 +5396,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B134" s="4">
         <v>0</v>
@@ -5402,7 +5404,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B135" s="4">
         <v>0</v>
@@ -5410,7 +5412,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B136" s="4">
         <v>0</v>
@@ -5418,7 +5420,7 @@
     </row>
     <row r="137" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B137" s="4">
         <v>0</v>
@@ -5426,7 +5428,7 @@
     </row>
     <row r="138" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B138" s="4">
         <v>0</v>
@@ -5434,7 +5436,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B139" s="4">
         <v>0</v>
@@ -5442,7 +5444,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B140" s="4">
         <v>0</v>
@@ -5450,7 +5452,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B141" s="4">
         <v>0</v>
@@ -5458,7 +5460,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B142" s="4">
         <v>0</v>
@@ -5466,7 +5468,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B143" s="4">
         <v>0</v>
@@ -5474,7 +5476,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B144" s="4">
         <v>0</v>
@@ -5482,7 +5484,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B145" s="4">
         <v>0</v>
@@ -5490,7 +5492,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B146" s="4">
         <v>0</v>
@@ -5498,7 +5500,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B147" s="4">
         <v>0</v>
@@ -5506,7 +5508,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B148" s="4">
         <v>0</v>
@@ -5514,7 +5516,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B149" s="4">
         <v>1</v>
@@ -5522,7 +5524,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B150" s="4">
         <v>0</v>
@@ -5530,7 +5532,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B151" s="4">
         <v>1</v>
@@ -5538,7 +5540,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B152" s="4">
         <v>0</v>
@@ -5546,7 +5548,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B153" s="4">
         <v>1</v>
@@ -5554,7 +5556,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B154" s="4">
         <v>0</v>
@@ -5562,7 +5564,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B155" s="4">
         <v>0</v>
@@ -5570,7 +5572,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B156" s="4">
         <v>1</v>
@@ -5578,7 +5580,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B157" s="4">
         <v>0</v>
@@ -5586,7 +5588,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B158" s="4">
         <v>1</v>
@@ -5594,7 +5596,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B159" s="4">
         <v>1</v>
@@ -5602,7 +5604,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B160" s="4">
         <v>0</v>
@@ -5610,7 +5612,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B161" s="4">
         <v>0</v>
@@ -5618,7 +5620,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B162" s="4">
         <v>1</v>
@@ -5626,7 +5628,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B163" s="4">
         <v>0</v>
@@ -5634,7 +5636,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B164" s="4">
         <v>1</v>
@@ -5642,7 +5644,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B165" s="4">
         <v>1</v>
@@ -5650,7 +5652,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B166" s="4">
         <v>1</v>
@@ -5658,7 +5660,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B167" s="4">
         <v>0</v>
@@ -5666,7 +5668,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B168" s="4">
         <v>0</v>
@@ -5674,7 +5676,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B169" s="4">
         <v>0</v>
@@ -5682,7 +5684,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B170" s="4">
         <v>0</v>
@@ -5690,7 +5692,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B171" s="4">
         <v>0</v>
@@ -5698,7 +5700,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B172" s="4">
         <v>0</v>
@@ -5706,7 +5708,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B173" s="4">
         <v>0</v>
@@ -5714,7 +5716,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B174" s="4">
         <v>0</v>
@@ -5722,7 +5724,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B175" s="4">
         <v>1</v>
@@ -5730,7 +5732,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B176" s="4">
         <v>1</v>
@@ -5738,7 +5740,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B177" s="4">
         <v>1</v>
@@ -5746,7 +5748,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B178" s="4">
         <v>1</v>
@@ -5754,7 +5756,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B179" s="4">
         <v>1</v>
@@ -5762,7 +5764,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B180" s="4">
         <v>1</v>
@@ -5770,7 +5772,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B181" s="4">
         <v>1</v>
@@ -5778,7 +5780,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B182" s="4">
         <v>1</v>
@@ -5786,7 +5788,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B183" s="4">
         <v>1</v>
@@ -5794,7 +5796,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B184" s="4">
         <v>1</v>
@@ -5802,7 +5804,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B185" s="4">
         <v>1</v>
@@ -5810,7 +5812,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B186" s="4">
         <v>1</v>
@@ -5818,7 +5820,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B187" s="4">
         <v>1</v>
@@ -5826,7 +5828,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B188" s="4">
         <v>1</v>
@@ -5834,7 +5836,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B189" s="4">
         <v>1</v>
@@ -5842,7 +5844,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B190" s="4">
         <v>1</v>
@@ -5850,7 +5852,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B191" s="4">
         <v>1</v>
@@ -5858,7 +5860,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B192" s="4">
         <v>1</v>
@@ -5866,7 +5868,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B193" s="4">
         <v>1</v>
@@ -5874,7 +5876,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B194" s="4">
         <v>1</v>
@@ -5882,7 +5884,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B195" s="4">
         <v>0</v>
@@ -5890,7 +5892,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B196" s="4">
         <v>1</v>
@@ -5898,7 +5900,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B197" s="4">
         <v>1</v>
@@ -5906,7 +5908,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B198" s="4">
         <v>0</v>
@@ -5914,7 +5916,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B199" s="4">
         <v>0</v>
@@ -5922,7 +5924,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B200" s="4">
         <v>0</v>
@@ -5930,7 +5932,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B201" s="4">
         <v>1</v>
@@ -5938,7 +5940,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B202" s="4">
         <v>1</v>
@@ -5946,7 +5948,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B203" s="4">
         <v>1</v>
@@ -5954,7 +5956,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B204" s="4">
         <v>1</v>
@@ -5962,7 +5964,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B205" s="4">
         <v>1</v>
@@ -5970,7 +5972,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B206" s="4">
         <v>1</v>
@@ -5978,7 +5980,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B207" s="4">
         <v>1</v>
@@ -5986,7 +5988,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B208" s="4">
         <v>1</v>
@@ -5994,7 +5996,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B209" s="4">
         <v>0</v>
@@ -6002,7 +6004,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B210" s="4">
         <v>1</v>
@@ -6010,7 +6012,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B211" s="4">
         <v>0</v>
@@ -6018,7 +6020,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B212" s="4">
         <v>1</v>
@@ -6026,7 +6028,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B213" s="4">
         <v>1</v>
@@ -6034,7 +6036,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B214" s="4">
         <v>1</v>
@@ -6042,7 +6044,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B215" s="4">
         <v>1</v>
@@ -6050,7 +6052,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B216" s="4">
         <v>0</v>
@@ -6058,7 +6060,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B217" s="4">
         <v>1</v>
@@ -6066,7 +6068,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B218" s="4">
         <v>1</v>
@@ -6074,7 +6076,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B219" s="4">
         <v>1</v>
@@ -6082,7 +6084,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B220" s="4">
         <v>0</v>
@@ -6090,7 +6092,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B221" s="4">
         <v>0</v>
@@ -6098,7 +6100,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B222" s="4">
         <v>0</v>
@@ -6106,7 +6108,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B223" s="4">
         <v>0</v>
@@ -6114,7 +6116,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B224" s="4">
         <v>1</v>
@@ -6122,7 +6124,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B225" s="4">
         <v>1</v>
@@ -6130,7 +6132,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B226" s="4">
         <v>0</v>
@@ -6138,7 +6140,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B227" s="4">
         <v>1</v>
@@ -6146,7 +6148,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B228" s="4">
         <v>0</v>
@@ -6154,7 +6156,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B229" s="4">
         <v>1</v>
@@ -6162,7 +6164,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B230" s="4">
         <v>0</v>
@@ -6170,7 +6172,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B231" s="4">
         <v>1</v>
@@ -6178,7 +6180,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B232" s="4">
         <v>1</v>
@@ -6186,7 +6188,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B233" s="4">
         <v>0</v>
@@ -6194,7 +6196,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B234" s="4">
         <v>0</v>
@@ -6202,7 +6204,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B235" s="4">
         <v>0</v>
@@ -6210,7 +6212,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B236" s="4">
         <v>1</v>
@@ -6218,7 +6220,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B237" s="4">
         <v>1</v>
@@ -6226,7 +6228,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B238" s="4">
         <v>1</v>
@@ -6234,7 +6236,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B239" s="4">
         <v>0</v>
@@ -6242,7 +6244,7 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B240" s="4">
         <v>1</v>
@@ -6250,7 +6252,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B241" s="4">
         <v>1</v>
@@ -6258,7 +6260,7 @@
     </row>
     <row r="242" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B242" s="4">
         <v>1</v>
@@ -6266,7 +6268,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B243" s="4">
         <v>1</v>
@@ -6274,7 +6276,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B244" s="4">
         <v>1</v>
@@ -6282,7 +6284,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B245" s="4">
         <v>1</v>
@@ -6290,7 +6292,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B246" s="4">
         <v>0</v>
@@ -6298,7 +6300,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B247" s="4">
         <v>0</v>
@@ -6306,7 +6308,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B248" s="4">
         <v>0</v>
@@ -6314,7 +6316,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B249" s="4">
         <v>0</v>
@@ -6322,7 +6324,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B250" s="4">
         <v>1</v>
@@ -6330,7 +6332,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B251" s="4">
         <v>0</v>
@@ -6338,7 +6340,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B252" s="4">
         <v>0</v>
@@ -6346,7 +6348,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B253" s="4">
         <v>0</v>
@@ -6354,7 +6356,7 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B254" s="4">
         <v>0</v>
@@ -6362,7 +6364,7 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B255" s="4">
         <v>0</v>
@@ -6370,7 +6372,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B256" s="4">
         <v>1</v>
@@ -6378,7 +6380,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B257" s="4">
         <v>1</v>
@@ -6386,7 +6388,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B258" s="4">
         <v>1</v>
@@ -6394,7 +6396,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B259" s="4">
         <v>1</v>
@@ -6402,7 +6404,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B260" s="4">
         <v>1</v>
@@ -6410,7 +6412,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B261" s="4">
         <v>0</v>
@@ -6418,7 +6420,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B262" s="4">
         <v>1</v>
@@ -6426,7 +6428,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B263" s="4">
         <v>0</v>
@@ -6434,7 +6436,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B264" s="4">
         <v>1</v>
@@ -6442,7 +6444,7 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B265" s="4">
         <v>0</v>
@@ -6450,7 +6452,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B266" s="4">
         <v>1</v>
@@ -6458,7 +6460,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B267" s="4">
         <v>0</v>
@@ -6466,7 +6468,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B268" s="4">
         <v>1</v>
@@ -6474,7 +6476,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B269" s="4">
         <v>1</v>
@@ -6482,7 +6484,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B270" s="4">
         <v>0</v>
@@ -6490,7 +6492,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B271" s="4">
         <v>1</v>
@@ -6498,7 +6500,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B272" s="4">
         <v>0</v>
@@ -6506,7 +6508,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B273" s="4">
         <v>0</v>
@@ -6514,7 +6516,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B274" s="4">
         <v>0</v>
@@ -6522,7 +6524,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B275" s="4">
         <v>0</v>
@@ -6530,7 +6532,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B276" s="4">
         <v>1</v>
@@ -6538,7 +6540,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B277" s="4">
         <v>1</v>
@@ -6546,7 +6548,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B278" s="4">
         <v>1</v>
@@ -6554,7 +6556,7 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B279" s="4">
         <v>1</v>
@@ -6562,7 +6564,7 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B280" s="4">
         <v>1</v>
@@ -6570,7 +6572,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B281" s="4">
         <v>0</v>
@@ -6578,7 +6580,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B282" s="4">
         <v>0</v>
@@ -6586,7 +6588,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B283" s="4">
         <v>0</v>
@@ -6594,7 +6596,7 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B284" s="4">
         <v>1</v>
@@ -6602,7 +6604,7 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B285" s="4">
         <v>1</v>
@@ -6610,7 +6612,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B286" s="4">
         <v>1</v>
@@ -6618,7 +6620,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B287" s="4">
         <v>1</v>
@@ -6626,7 +6628,7 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B288" s="4">
         <v>1</v>
@@ -6634,7 +6636,7 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B289" s="4">
         <v>1</v>
@@ -6642,7 +6644,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B290" s="4">
         <v>1</v>
@@ -6650,7 +6652,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B291" s="4">
         <v>1</v>
@@ -6658,7 +6660,7 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B292" s="4">
         <v>1</v>
@@ -6666,7 +6668,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B293" s="4">
         <v>0</v>
@@ -6674,7 +6676,7 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B294" s="4">
         <v>1</v>
@@ -6682,7 +6684,7 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B295" s="4">
         <v>0</v>
@@ -6690,7 +6692,7 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B296" s="4">
         <v>1</v>
@@ -6698,7 +6700,7 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B297" s="4">
         <v>1</v>
@@ -6706,7 +6708,7 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B298" s="4">
         <v>0</v>
@@ -6714,7 +6716,7 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B299" s="4">
         <v>0</v>
@@ -6722,7 +6724,7 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B300" s="4">
         <v>1</v>
@@ -6730,7 +6732,7 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B301" s="4">
         <v>0</v>
@@ -6738,7 +6740,7 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B302" s="4">
         <v>1</v>
@@ -6746,7 +6748,7 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B303" s="4">
         <v>1</v>
@@ -6754,7 +6756,7 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B304" s="4">
         <v>0</v>
@@ -6762,7 +6764,7 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B305" s="4">
         <v>0</v>
@@ -6770,7 +6772,7 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B306" s="4">
         <v>1</v>
@@ -6778,7 +6780,7 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B307" s="4">
         <v>1</v>
@@ -6786,7 +6788,7 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B308" s="4">
         <v>0</v>
@@ -6794,7 +6796,7 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B309" s="4">
         <v>0</v>
@@ -6802,7 +6804,7 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B310" s="4">
         <v>1</v>
@@ -6810,7 +6812,7 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B311" s="4">
         <v>1</v>
@@ -6818,7 +6820,7 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B312" s="4">
         <v>1</v>
@@ -6826,7 +6828,7 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B313" s="4">
         <v>1</v>
@@ -6834,7 +6836,7 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B314" s="4">
         <v>0</v>
@@ -6842,7 +6844,7 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B315" s="4">
         <v>1</v>
@@ -6850,7 +6852,7 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B316" s="4">
         <v>0</v>
@@ -6858,7 +6860,7 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B317" s="4">
         <v>0</v>
@@ -6866,7 +6868,7 @@
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B318" s="4">
         <v>1</v>
@@ -6874,7 +6876,7 @@
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B319" s="4">
         <v>0</v>
@@ -6882,7 +6884,7 @@
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B320" s="4">
         <v>0</v>
@@ -6890,7 +6892,7 @@
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B321" s="4">
         <v>1</v>
@@ -6898,7 +6900,7 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B322" s="4">
         <v>0</v>
@@ -6906,7 +6908,7 @@
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B323" s="4">
         <v>0</v>
@@ -6914,7 +6916,7 @@
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B324" s="4">
         <v>0</v>
@@ -6922,7 +6924,7 @@
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B325" s="4">
         <v>1</v>
@@ -6930,7 +6932,7 @@
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B326" s="4">
         <v>0</v>
@@ -6938,7 +6940,7 @@
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B327" s="4">
         <v>1</v>
@@ -6946,7 +6948,7 @@
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B328" s="4">
         <v>0</v>
@@ -6954,7 +6956,7 @@
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B329" s="4">
         <v>0</v>
@@ -6962,7 +6964,7 @@
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B330" s="4">
         <v>1</v>
@@ -6970,7 +6972,7 @@
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B331" s="4">
         <v>0</v>
@@ -6978,7 +6980,7 @@
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B332" s="4">
         <v>0</v>
@@ -6986,7 +6988,7 @@
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B333" s="4">
         <v>1</v>
@@ -6994,7 +6996,7 @@
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B334" s="4">
         <v>0</v>
@@ -7002,7 +7004,7 @@
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B335" s="4">
         <v>0</v>
@@ -7010,7 +7012,7 @@
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B336" s="4">
         <v>0</v>
@@ -7018,7 +7020,7 @@
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B337" s="4">
         <v>0</v>
@@ -7026,7 +7028,7 @@
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B338" s="4">
         <v>0</v>
@@ -7034,7 +7036,7 @@
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B339" s="4">
         <v>0</v>
@@ -7042,7 +7044,7 @@
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B340" s="4">
         <v>1</v>
@@ -7050,7 +7052,7 @@
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B341" s="4">
         <v>1</v>
@@ -7058,7 +7060,7 @@
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B342" s="4">
         <v>0</v>
@@ -7066,7 +7068,7 @@
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B343" s="4">
         <v>0</v>
@@ -7074,7 +7076,7 @@
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B344" s="4">
         <v>0</v>
@@ -7082,7 +7084,7 @@
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B345" s="4">
         <v>0</v>
@@ -7090,7 +7092,7 @@
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B346" s="4">
         <v>1</v>
@@ -7098,7 +7100,7 @@
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B347" s="4">
         <v>1</v>
@@ -7106,7 +7108,7 @@
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B348" s="4">
         <v>0</v>
@@ -7114,7 +7116,7 @@
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B349" s="4">
         <v>1</v>
@@ -7122,7 +7124,7 @@
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B350" s="4">
         <v>1</v>
@@ -7130,7 +7132,7 @@
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B351" s="4">
         <v>0</v>
@@ -7138,7 +7140,7 @@
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B352" s="4">
         <v>0</v>
@@ -7146,7 +7148,7 @@
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B353" s="4">
         <v>0</v>
@@ -7154,7 +7156,7 @@
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B354" s="4">
         <v>1</v>
@@ -7162,7 +7164,7 @@
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B355" s="4">
         <v>1</v>
@@ -7170,7 +7172,7 @@
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B356" s="4">
         <v>0</v>
@@ -7178,7 +7180,7 @@
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B357" s="4">
         <v>0</v>
@@ -7186,7 +7188,7 @@
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B358" s="4">
         <v>0</v>
@@ -7194,7 +7196,7 @@
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B359" s="4">
         <v>1</v>
@@ -7202,7 +7204,7 @@
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B360" s="4">
         <v>1</v>
@@ -7210,7 +7212,7 @@
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B361" s="4">
         <v>0</v>
@@ -7218,7 +7220,7 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B362" s="4">
         <v>0</v>
@@ -7226,7 +7228,7 @@
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B363" s="4">
         <v>0</v>
@@ -7234,7 +7236,7 @@
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B364" s="4">
         <v>1</v>
@@ -7242,7 +7244,7 @@
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B365" s="4">
         <v>1</v>
@@ -7250,7 +7252,7 @@
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B366" s="4">
         <v>1</v>
@@ -7258,7 +7260,7 @@
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B367" s="4">
         <v>0</v>
@@ -7266,7 +7268,7 @@
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B368" s="4">
         <v>1</v>
@@ -7274,7 +7276,7 @@
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B369" s="4">
         <v>0</v>
@@ -7282,7 +7284,7 @@
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B370" s="4">
         <v>0</v>
@@ -7290,7 +7292,7 @@
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B371" s="4">
         <v>1</v>
@@ -7298,7 +7300,7 @@
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B372" s="4">
         <v>0</v>
@@ -7306,7 +7308,7 @@
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B373" s="4">
         <v>0</v>
@@ -7314,7 +7316,7 @@
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B374" s="4">
         <v>1</v>
@@ -7322,7 +7324,7 @@
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A375" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B375" s="4">
         <v>0</v>
@@ -7330,7 +7332,7 @@
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B376" s="4">
         <v>1</v>
@@ -7338,7 +7340,7 @@
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B377" s="4">
         <v>0</v>
@@ -7346,7 +7348,7 @@
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B378" s="4">
         <v>0</v>
@@ -7354,7 +7356,7 @@
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B379" s="4">
         <v>1</v>
@@ -7362,7 +7364,7 @@
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B380" s="4">
         <v>0</v>
@@ -7370,7 +7372,7 @@
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B381" s="4">
         <v>1</v>
@@ -7378,7 +7380,7 @@
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B382" s="4">
         <v>0</v>
@@ -7386,7 +7388,7 @@
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B383" s="4">
         <v>1</v>
@@ -7394,7 +7396,7 @@
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B384" s="4">
         <v>1</v>
@@ -7402,7 +7404,7 @@
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A385" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B385" s="4">
         <v>0</v>
@@ -7410,7 +7412,7 @@
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A386" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B386" s="4">
         <v>1</v>
@@ -7418,7 +7420,7 @@
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A387" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B387" s="4">
         <v>0</v>
@@ -7426,7 +7428,7 @@
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A388" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B388" s="4">
         <v>0</v>
@@ -7434,7 +7436,7 @@
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A389" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B389" s="4">
         <v>0</v>
@@ -7442,7 +7444,7 @@
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A390" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B390" s="4">
         <v>1</v>
@@ -7450,7 +7452,7 @@
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A391" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B391" s="4">
         <v>1</v>
@@ -7458,7 +7460,7 @@
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A392" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B392" s="4">
         <v>0</v>
@@ -7466,7 +7468,7 @@
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A393" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B393" s="4">
         <v>1</v>
@@ -7474,7 +7476,7 @@
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A394" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B394" s="4">
         <v>0</v>
@@ -7482,7 +7484,7 @@
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A395" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B395" s="4">
         <v>0</v>
@@ -7490,7 +7492,7 @@
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A396" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B396" s="4">
         <v>1</v>
@@ -7498,7 +7500,7 @@
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A397" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B397" s="4">
         <v>0</v>
@@ -7506,7 +7508,7 @@
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A398" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B398" s="4">
         <v>0</v>
@@ -7514,7 +7516,7 @@
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A399" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B399" s="4">
         <v>0</v>
@@ -7522,7 +7524,7 @@
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A400" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B400" s="4">
         <v>1</v>
@@ -7530,7 +7532,7 @@
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A401" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B401" s="4">
         <v>0</v>
@@ -7538,7 +7540,7 @@
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A402" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B402" s="4">
         <v>0</v>
@@ -7546,7 +7548,7 @@
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A403" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B403" s="4">
         <v>1</v>
@@ -7554,7 +7556,7 @@
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A404" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B404" s="4">
         <v>1</v>
@@ -7562,7 +7564,7 @@
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B405" s="4">
         <v>1</v>
@@ -7570,7 +7572,7 @@
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A406" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B406" s="4">
         <v>1</v>
@@ -7578,7 +7580,7 @@
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B407" s="4">
         <v>1</v>
@@ -7586,7 +7588,7 @@
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A408" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B408" s="4">
         <v>1</v>
@@ -7594,7 +7596,7 @@
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A409" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B409" s="4">
         <v>1</v>
@@ -7602,7 +7604,7 @@
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A410" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B410" s="4">
         <v>0</v>
@@ -7610,7 +7612,7 @@
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A411" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B411" s="4">
         <v>1</v>
@@ -7618,7 +7620,7 @@
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A412" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B412" s="4">
         <v>1</v>
@@ -7626,7 +7628,7 @@
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A413" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B413" s="4">
         <v>0</v>
@@ -7634,7 +7636,7 @@
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A414" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B414" s="4">
         <v>1</v>
@@ -7642,7 +7644,7 @@
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A415" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B415" s="4">
         <v>1</v>
@@ -7650,7 +7652,7 @@
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A416" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B416" s="4">
         <v>1</v>
@@ -7658,7 +7660,7 @@
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A417" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B417" s="4">
         <v>1</v>
@@ -7666,7 +7668,7 @@
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A418" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B418" s="4">
         <v>1</v>
@@ -7674,7 +7676,7 @@
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A419" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B419" s="4">
         <v>0</v>
@@ -7682,7 +7684,7 @@
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A420" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B420" s="4">
         <v>0</v>
@@ -7690,7 +7692,7 @@
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A421" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B421" s="4">
         <v>0</v>
@@ -7698,7 +7700,7 @@
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A422" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B422" s="4">
         <v>1</v>
@@ -7706,7 +7708,7 @@
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A423" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B423" s="4">
         <v>0</v>
@@ -7714,7 +7716,7 @@
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A424" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B424" s="4">
         <v>1</v>
@@ -7722,7 +7724,7 @@
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A425" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B425" s="4">
         <v>0</v>
@@ -7730,7 +7732,7 @@
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A426" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B426" s="4">
         <v>1</v>
@@ -7738,7 +7740,7 @@
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A427" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B427" s="4">
         <v>0</v>
@@ -7746,7 +7748,7 @@
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A428" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B428" s="4">
         <v>1</v>
@@ -7754,7 +7756,7 @@
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A429" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B429" s="4">
         <v>1</v>
@@ -7762,7 +7764,7 @@
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A430" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B430" s="4">
         <v>1</v>
@@ -7770,7 +7772,7 @@
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A431" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B431" s="4">
         <v>0</v>
@@ -7778,7 +7780,7 @@
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A432" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B432" s="4">
         <v>1</v>
@@ -7786,7 +7788,7 @@
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A433" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B433" s="4">
         <v>1</v>
@@ -7794,7 +7796,7 @@
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A434" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B434" s="4">
         <v>1</v>
@@ -7802,7 +7804,7 @@
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A435" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B435" s="4">
         <v>1</v>
@@ -7810,7 +7812,7 @@
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A436" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B436" s="4">
         <v>1</v>
@@ -7818,7 +7820,7 @@
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A437" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B437" s="4">
         <v>0</v>
@@ -7826,7 +7828,7 @@
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A438" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B438" s="4">
         <v>0</v>
@@ -7834,7 +7836,7 @@
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A439" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B439" s="4">
         <v>1</v>
@@ -7842,7 +7844,7 @@
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A440" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B440" s="4">
         <v>0</v>
@@ -7850,7 +7852,7 @@
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A441" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B441" s="4">
         <v>0</v>
@@ -7858,7 +7860,7 @@
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A442" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B442" s="4">
         <v>1</v>
@@ -7866,7 +7868,7 @@
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A443" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B443" s="4">
         <v>0</v>
@@ -7874,7 +7876,7 @@
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A444" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B444" s="4">
         <v>0</v>
@@ -7882,7 +7884,7 @@
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A445" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B445" s="4">
         <v>1</v>
@@ -7890,7 +7892,7 @@
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A446" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B446" s="4">
         <v>0</v>
@@ -7898,7 +7900,7 @@
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A447" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B447" s="4">
         <v>0</v>
@@ -7906,7 +7908,7 @@
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A448" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B448" s="4">
         <v>0</v>
@@ -7914,7 +7916,7 @@
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A449" s="3" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B449" s="4">
         <v>1</v>
@@ -7922,7 +7924,7 @@
     </row>
     <row r="450" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A450" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B450" s="4">
         <v>1</v>
@@ -7930,7 +7932,7 @@
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A451" s="2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B451" s="4">
         <v>0</v>
@@ -7938,7 +7940,7 @@
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A452" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B452" s="4">
         <v>1</v>
@@ -7946,7 +7948,7 @@
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A453" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B453" s="4">
         <v>1</v>
@@ -7954,7 +7956,7 @@
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A454" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B454" s="4">
         <v>1</v>
@@ -7962,7 +7964,7 @@
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A455" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B455" s="4">
         <v>1</v>
@@ -7970,7 +7972,7 @@
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A456" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B456" s="4">
         <v>1</v>
@@ -7978,7 +7980,7 @@
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A457" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B457" s="4">
         <v>0</v>
@@ -7986,7 +7988,7 @@
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A458" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B458" s="4">
         <v>0</v>
@@ -7994,7 +7996,7 @@
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A459" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B459" s="4">
         <v>0</v>
@@ -8002,7 +8004,7 @@
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A460" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B460" s="4">
         <v>0</v>
@@ -8010,7 +8012,7 @@
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A461" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B461" s="4">
         <v>1</v>
@@ -8018,7 +8020,7 @@
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A462" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B462" s="4">
         <v>0</v>
@@ -8026,7 +8028,7 @@
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A463" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B463" s="4">
         <v>1</v>
@@ -8034,7 +8036,7 @@
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A464" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B464" s="4">
         <v>1</v>
@@ -8042,7 +8044,7 @@
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A465" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B465" s="4">
         <v>1</v>
@@ -8050,7 +8052,7 @@
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A466" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B466" s="4">
         <v>1</v>
@@ -8058,7 +8060,7 @@
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A467" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B467" s="4">
         <v>1</v>
@@ -8066,7 +8068,7 @@
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A468" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B468" s="4">
         <v>1</v>
@@ -8074,7 +8076,7 @@
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A469" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B469" s="4">
         <v>1</v>
@@ -8082,7 +8084,7 @@
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A470" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B470" s="4">
         <v>0</v>
@@ -8090,7 +8092,7 @@
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A471" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B471" s="4">
         <v>1</v>
@@ -8098,7 +8100,7 @@
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A472" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B472" s="4">
         <v>1</v>
@@ -8106,7 +8108,7 @@
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A473" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B473" s="4">
         <v>1</v>
@@ -8114,7 +8116,7 @@
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A474" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B474" s="4">
         <v>1</v>
@@ -8122,7 +8124,7 @@
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A475" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B475" s="4">
         <v>1</v>
@@ -8130,7 +8132,7 @@
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A476" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B476" s="4">
         <v>0</v>
@@ -8138,7 +8140,7 @@
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A477" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B477" s="4">
         <v>1</v>
@@ -8146,7 +8148,7 @@
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A478" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B478" s="4">
         <v>1</v>
@@ -8154,7 +8156,7 @@
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A479" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B479" s="4">
         <v>0</v>
@@ -8162,7 +8164,7 @@
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A480" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B480" s="4">
         <v>0</v>
@@ -8170,7 +8172,7 @@
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A481" s="2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B481" s="4">
         <v>0</v>
@@ -8178,7 +8180,7 @@
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A482" s="2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B482" s="4">
         <v>1</v>
@@ -8186,7 +8188,7 @@
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A483" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B483" s="4">
         <v>1</v>
@@ -8194,7 +8196,7 @@
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A484" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B484" s="4">
         <v>1</v>
@@ -8202,7 +8204,7 @@
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A485" s="2" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B485" s="4">
         <v>0</v>
@@ -8210,7 +8212,7 @@
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A486" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B486" s="4">
         <v>1</v>
@@ -8218,7 +8220,7 @@
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A487" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B487" s="4">
         <v>0</v>
@@ -8226,7 +8228,7 @@
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A488" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B488" s="4">
         <v>1</v>
@@ -8234,7 +8236,7 @@
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A489" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B489" s="4">
         <v>0</v>
@@ -8242,7 +8244,7 @@
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A490" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B490" s="4">
         <v>0</v>
@@ -8250,7 +8252,7 @@
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A491" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B491" s="4">
         <v>1</v>
@@ -8258,7 +8260,7 @@
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A492" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B492" s="4">
         <v>0</v>
@@ -8266,7 +8268,7 @@
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A493" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B493" s="4">
         <v>1</v>
@@ -8274,7 +8276,7 @@
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A494" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B494" s="4">
         <v>1</v>
@@ -8282,7 +8284,7 @@
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A495" s="2" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B495" s="4">
         <v>1</v>
@@ -8290,7 +8292,7 @@
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A496" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B496" s="4">
         <v>0</v>
@@ -8298,7 +8300,7 @@
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A497" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B497" s="4">
         <v>1</v>
@@ -8306,7 +8308,7 @@
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A498" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B498" s="4">
         <v>1</v>
@@ -8314,7 +8316,7 @@
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A499" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B499" s="4">
         <v>1</v>
@@ -8322,7 +8324,7 @@
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A500" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B500" s="4">
         <v>0</v>
@@ -8330,7 +8332,7 @@
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A501" s="2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B501" s="4">
         <v>1</v>
@@ -8338,7 +8340,7 @@
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A502" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B502" s="4">
         <v>1</v>
@@ -8346,7 +8348,7 @@
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A503" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B503" s="4">
         <v>0</v>
@@ -8354,7 +8356,7 @@
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A504" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B504" s="4">
         <v>0</v>
@@ -8362,7 +8364,7 @@
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A505" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B505" s="4">
         <v>0</v>
@@ -8370,7 +8372,7 @@
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A506" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B506" s="4">
         <v>1</v>
@@ -8378,7 +8380,7 @@
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A507" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B507" s="4">
         <v>1</v>
@@ -8386,7 +8388,7 @@
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A508" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B508" s="4">
         <v>0</v>
@@ -8394,7 +8396,7 @@
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A509" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B509" s="4">
         <v>0</v>
@@ -8402,7 +8404,7 @@
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A510" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B510" s="4">
         <v>0</v>
@@ -8410,7 +8412,7 @@
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A511" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B511" s="4">
         <v>0</v>
@@ -8418,7 +8420,7 @@
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A512" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B512" s="4">
         <v>0</v>
@@ -8426,7 +8428,7 @@
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A513" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B513" s="4">
         <v>0</v>
@@ -8434,7 +8436,7 @@
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A514" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B514" s="4">
         <v>0</v>
@@ -8442,7 +8444,7 @@
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A515" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B515" s="4">
         <v>1</v>
@@ -8450,7 +8452,7 @@
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A516" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B516" s="4">
         <v>0</v>
@@ -8458,7 +8460,7 @@
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A517" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B517" s="4">
         <v>0</v>
@@ -8466,7 +8468,7 @@
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A518" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B518" s="4">
         <v>0</v>
@@ -8474,7 +8476,7 @@
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A519" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B519" s="4">
         <v>0</v>
@@ -8482,7 +8484,7 @@
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A520" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B520" s="4">
         <v>1</v>
@@ -8490,7 +8492,7 @@
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A521" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B521" s="4">
         <v>0</v>
@@ -8498,7 +8500,7 @@
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A522" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B522" s="4">
         <v>0</v>
@@ -8506,7 +8508,7 @@
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A523" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B523" s="4">
         <v>1</v>
@@ -8514,7 +8516,7 @@
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A524" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B524" s="4">
         <v>0</v>
@@ -8522,7 +8524,7 @@
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A525" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B525" s="4">
         <v>1</v>
@@ -8530,7 +8532,7 @@
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A526" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B526" s="4">
         <v>1</v>
@@ -8538,7 +8540,7 @@
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A527" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B527" s="4">
         <v>1</v>
@@ -8546,7 +8548,7 @@
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A528" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B528" s="4">
         <v>1</v>
@@ -8554,7 +8556,7 @@
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A529" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B529" s="4">
         <v>1</v>
@@ -8562,7 +8564,7 @@
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A530" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B530" s="4">
         <v>1</v>
@@ -8570,7 +8572,7 @@
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A531" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B531" s="4">
         <v>1</v>
@@ -8578,7 +8580,7 @@
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A532" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B532" s="4">
         <v>0</v>
@@ -8586,7 +8588,7 @@
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A533" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B533" s="4">
         <v>0</v>
@@ -8594,7 +8596,7 @@
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A534" s="2" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B534" s="4">
         <v>1</v>
@@ -8602,7 +8604,7 @@
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A535" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B535" s="4">
         <v>0</v>
@@ -8610,7 +8612,7 @@
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A536" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B536" s="4">
         <v>0</v>
@@ -8618,7 +8620,7 @@
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A537" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B537" s="4">
         <v>1</v>
@@ -8626,7 +8628,7 @@
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A538" s="2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B538" s="4">
         <v>0</v>
@@ -8634,7 +8636,7 @@
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A539" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B539" s="4">
         <v>0</v>
@@ -8642,7 +8644,7 @@
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A540" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B540" s="4">
         <v>1</v>
@@ -8650,7 +8652,7 @@
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A541" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B541" s="4">
         <v>1</v>
@@ -8658,7 +8660,7 @@
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A542" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B542" s="4">
         <v>1</v>
@@ -8666,7 +8668,7 @@
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A543" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B543" s="4">
         <v>1</v>
@@ -8674,7 +8676,7 @@
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A544" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B544" s="4">
         <v>1</v>
@@ -8682,7 +8684,7 @@
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A545" s="2" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B545" s="4">
         <v>0</v>
@@ -8690,7 +8692,7 @@
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A546" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B546" s="4">
         <v>0</v>
@@ -8698,7 +8700,7 @@
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A547" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B547" s="4">
         <v>0</v>
@@ -8706,7 +8708,7 @@
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A548" s="2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B548" s="4">
         <v>1</v>
@@ -8714,7 +8716,7 @@
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A549" s="2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B549" s="4">
         <v>0</v>
@@ -8722,7 +8724,7 @@
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A550" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B550" s="4">
         <v>1</v>
@@ -8730,7 +8732,7 @@
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A551" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B551" s="4">
         <v>1</v>
@@ -8738,7 +8740,7 @@
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A552" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B552" s="4">
         <v>1</v>
@@ -8746,7 +8748,7 @@
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A553" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B553" s="4">
         <v>1</v>
@@ -8754,7 +8756,7 @@
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A554" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B554" s="4">
         <v>0</v>
@@ -8762,7 +8764,7 @@
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A555" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B555" s="4">
         <v>1</v>
@@ -8770,7 +8772,7 @@
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A556" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B556" s="4">
         <v>1</v>
@@ -8778,7 +8780,7 @@
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A557" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B557" s="4">
         <v>1</v>
@@ -8786,7 +8788,7 @@
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A558" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B558" s="4">
         <v>1</v>
@@ -8794,7 +8796,7 @@
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A559" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B559" s="4">
         <v>1</v>
@@ -8802,7 +8804,7 @@
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A560" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B560" s="4">
         <v>1</v>
@@ -8810,7 +8812,7 @@
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A561" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B561" s="4">
         <v>1</v>
@@ -8818,7 +8820,7 @@
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A562" s="2" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B562" s="4">
         <v>1</v>
@@ -8826,7 +8828,7 @@
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A563" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B563" s="4">
         <v>1</v>
@@ -8834,7 +8836,7 @@
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A564" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B564" s="4">
         <v>0</v>
@@ -8842,7 +8844,7 @@
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A565" s="2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B565" s="4">
         <v>0</v>
@@ -8850,7 +8852,7 @@
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A566" s="2" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B566" s="4">
         <v>0</v>
@@ -8858,7 +8860,7 @@
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A567" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B567" s="4">
         <v>0</v>
@@ -8866,7 +8868,7 @@
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A568" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B568" s="4">
         <v>0</v>
@@ -8874,7 +8876,7 @@
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A569" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B569" s="4">
         <v>1</v>
@@ -8882,7 +8884,7 @@
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A570" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B570" s="4">
         <v>0</v>
@@ -8890,7 +8892,7 @@
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A571" s="2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B571" s="4">
         <v>1</v>
@@ -8898,7 +8900,7 @@
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A572" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B572" s="4">
         <v>0</v>
@@ -8906,7 +8908,7 @@
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A573" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B573" s="4">
         <v>0</v>
@@ -8914,7 +8916,7 @@
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A574" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B574" s="4">
         <v>1</v>
@@ -8922,7 +8924,7 @@
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A575" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B575" s="4">
         <v>1</v>
@@ -8930,7 +8932,7 @@
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A576" s="2" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B576" s="4">
         <v>0</v>
@@ -8938,7 +8940,7 @@
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A577" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B577" s="4">
         <v>1</v>
@@ -8946,7 +8948,7 @@
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A578" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B578" s="4">
         <v>1</v>
@@ -8954,7 +8956,7 @@
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A579" s="2" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B579" s="4">
         <v>1</v>
@@ -8962,7 +8964,7 @@
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A580" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B580" s="4">
         <v>1</v>
@@ -8970,7 +8972,7 @@
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A581" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B581" s="4">
         <v>1</v>
@@ -8978,7 +8980,7 @@
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A582" s="2" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B582" s="4">
         <v>0</v>
@@ -8986,7 +8988,7 @@
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A583" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B583" s="4">
         <v>0</v>
@@ -8994,7 +8996,7 @@
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A584" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B584" s="4">
         <v>1</v>
@@ -9002,7 +9004,7 @@
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A585" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B585" s="4">
         <v>0</v>
@@ -9010,7 +9012,7 @@
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A586" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B586" s="4">
         <v>1</v>
@@ -9018,7 +9020,7 @@
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A587" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B587" s="4">
         <v>1</v>
@@ -9026,7 +9028,7 @@
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A588" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B588" s="4">
         <v>0</v>
@@ -9034,7 +9036,7 @@
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A589" s="2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B589" s="4">
         <v>1</v>
@@ -9042,7 +9044,7 @@
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A590" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B590" s="4">
         <v>1</v>
@@ -9050,7 +9052,7 @@
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A591" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B591" s="4">
         <v>1</v>
@@ -9058,7 +9060,7 @@
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A592" s="2" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B592" s="4">
         <v>1</v>
@@ -9066,7 +9068,7 @@
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A593" s="2" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B593" s="4">
         <v>0</v>
@@ -9074,7 +9076,7 @@
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A594" s="2" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B594" s="4">
         <v>0</v>
@@ -9082,7 +9084,7 @@
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A595" s="2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B595" s="4">
         <v>0</v>
@@ -9090,7 +9092,7 @@
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A596" s="2" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B596" s="4">
         <v>1</v>
@@ -9098,7 +9100,7 @@
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A597" s="2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B597" s="4">
         <v>0</v>
@@ -9106,7 +9108,7 @@
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A598" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B598" s="4">
         <v>0</v>
@@ -9114,7 +9116,7 @@
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A599" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B599" s="4">
         <v>1</v>
@@ -9122,7 +9124,7 @@
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A600" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B600" s="4">
         <v>0</v>
@@ -9130,7 +9132,7 @@
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A601" s="2" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B601" s="4">
         <v>0</v>
@@ -9138,7 +9140,7 @@
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A602" s="2" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B602" s="4">
         <v>1</v>
@@ -9146,7 +9148,7 @@
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A603" s="2" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B603" s="4">
         <v>1</v>
@@ -9154,7 +9156,7 @@
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A604" s="2" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B604" s="4">
         <v>0</v>
@@ -9162,7 +9164,7 @@
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A605" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B605" s="4">
         <v>0</v>
@@ -9170,7 +9172,7 @@
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A606" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B606" s="4">
         <v>1</v>
@@ -9178,7 +9180,7 @@
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A607" s="2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B607" s="4">
         <v>1</v>
@@ -9186,7 +9188,7 @@
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A608" s="2" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B608" s="4">
         <v>1</v>
@@ -9194,7 +9196,7 @@
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A609" s="2" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B609" s="4">
         <v>1</v>
@@ -9202,7 +9204,7 @@
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A610" s="2" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B610" s="4">
         <v>1</v>
@@ -9210,7 +9212,7 @@
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A611" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B611" s="4">
         <v>0</v>
@@ -9218,7 +9220,7 @@
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A612" s="2" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B612" s="4">
         <v>0</v>
@@ -9226,7 +9228,7 @@
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A613" s="2" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B613" s="4">
         <v>1</v>
@@ -9234,7 +9236,7 @@
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A614" s="2" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B614" s="4">
         <v>1</v>
@@ -9242,7 +9244,7 @@
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A615" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B615" s="4">
         <v>1</v>
@@ -9250,7 +9252,7 @@
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A616" s="2" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B616" s="4">
         <v>1</v>
@@ -9258,7 +9260,7 @@
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A617" s="2" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B617" s="4">
         <v>1</v>
@@ -9266,7 +9268,7 @@
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A618" s="2" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B618" s="4">
         <v>0</v>
@@ -9274,7 +9276,7 @@
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A619" s="2" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B619" s="4">
         <v>1</v>
@@ -9282,7 +9284,7 @@
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A620" s="2" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B620" s="4">
         <v>1</v>
@@ -9290,7 +9292,7 @@
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A621" s="2" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B621" s="4">
         <v>0</v>
@@ -9298,7 +9300,7 @@
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A622" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B622" s="4">
         <v>1</v>
@@ -9306,7 +9308,7 @@
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A623" s="2" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B623" s="4">
         <v>1</v>
@@ -9314,7 +9316,7 @@
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A624" s="2" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B624" s="4">
         <v>1</v>
@@ -9322,7 +9324,7 @@
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A625" s="2" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B625" s="4">
         <v>1</v>
@@ -9330,7 +9332,7 @@
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A626" s="2" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B626" s="4">
         <v>1</v>
@@ -9338,7 +9340,7 @@
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A627" s="2" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B627" s="4">
         <v>1</v>
@@ -9346,7 +9348,7 @@
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A628" s="2" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B628" s="4">
         <v>1</v>
@@ -9354,7 +9356,7 @@
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A629" s="2" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B629" s="4">
         <v>1</v>
@@ -9362,7 +9364,7 @@
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A630" s="2" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B630" s="4">
         <v>0</v>
@@ -9370,7 +9372,7 @@
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A631" s="2" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B631" s="4">
         <v>1</v>
@@ -9378,7 +9380,7 @@
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A632" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B632" s="4">
         <v>0</v>
@@ -9386,7 +9388,7 @@
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A633" s="2" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B633" s="4">
         <v>1</v>
@@ -9394,7 +9396,7 @@
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A634" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B634" s="4">
         <v>0</v>
@@ -9402,7 +9404,7 @@
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A635" s="2" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B635" s="4">
         <v>1</v>
@@ -9410,7 +9412,7 @@
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A636" s="2" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B636" s="4">
         <v>1</v>
@@ -9418,7 +9420,7 @@
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A637" s="2" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B637" s="4">
         <v>1</v>
@@ -9426,7 +9428,7 @@
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A638" s="2" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B638" s="4">
         <v>1</v>
@@ -9434,7 +9436,7 @@
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A639" s="2" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B639" s="4">
         <v>0</v>
@@ -9442,7 +9444,7 @@
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A640" s="2" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B640" s="4">
         <v>1</v>
@@ -9450,7 +9452,7 @@
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A641" s="2" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B641" s="4">
         <v>1</v>
@@ -9458,7 +9460,7 @@
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A642" s="2" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B642" s="4">
         <v>1</v>
@@ -9466,7 +9468,7 @@
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A643" s="2" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B643" s="4">
         <v>0</v>
@@ -9474,7 +9476,7 @@
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A644" s="2" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B644" s="4">
         <v>1</v>
@@ -9482,7 +9484,7 @@
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A645" s="2" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B645" s="4">
         <v>1</v>
@@ -9490,7 +9492,7 @@
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A646" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B646" s="4">
         <v>0</v>
@@ -9498,7 +9500,7 @@
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A647" s="2" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B647" s="4">
         <v>1</v>
@@ -9506,7 +9508,7 @@
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A648" s="2" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B648" s="4">
         <v>1</v>
@@ -9514,7 +9516,7 @@
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A649" s="2" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B649" s="4">
         <v>1</v>
@@ -9522,7 +9524,7 @@
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A650" s="2" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B650" s="4">
         <v>1</v>
@@ -9530,7 +9532,7 @@
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A651" s="2" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B651" s="4">
         <v>1</v>
@@ -9538,7 +9540,7 @@
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A652" s="2" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B652" s="4">
         <v>0</v>
@@ -9546,7 +9548,7 @@
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A653" s="2" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B653" s="4">
         <v>0</v>
@@ -9554,7 +9556,7 @@
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A654" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B654" s="4">
         <v>0</v>
@@ -9562,7 +9564,7 @@
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A655" s="2" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B655" s="4">
         <v>1</v>
@@ -9570,7 +9572,7 @@
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A656" s="2" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B656" s="4">
         <v>0</v>
@@ -9578,7 +9580,7 @@
     </row>
     <row r="657" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A657" s="2" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B657" s="4">
         <v>1</v>
@@ -9586,7 +9588,7 @@
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A658" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B658" s="4">
         <v>1</v>
@@ -9594,7 +9596,7 @@
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A659" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B659" s="4">
         <v>0</v>
@@ -9602,7 +9604,7 @@
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A660" s="2" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B660" s="4">
         <v>1</v>
@@ -9610,7 +9612,7 @@
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A661" s="2" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B661" s="4">
         <v>0</v>
@@ -9618,7 +9620,7 @@
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A662" s="2" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B662" s="4">
         <v>0</v>
@@ -9626,7 +9628,7 @@
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A663" s="2" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B663" s="4">
         <v>0</v>
@@ -9634,7 +9636,7 @@
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A664" s="2" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B664" s="4">
         <v>0</v>
@@ -9642,7 +9644,7 @@
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A665" s="2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B665" s="4">
         <v>1</v>
@@ -9650,7 +9652,7 @@
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A666" s="2" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B666" s="4">
         <v>0</v>
@@ -9658,7 +9660,7 @@
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A667" s="2" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B667" s="4">
         <v>1</v>
@@ -9666,7 +9668,7 @@
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A668" s="2" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B668" s="4">
         <v>1</v>
@@ -9674,7 +9676,7 @@
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A669" s="2" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B669" s="4">
         <v>0</v>
@@ -9682,7 +9684,7 @@
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A670" s="2" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B670" s="4">
         <v>1</v>
@@ -9690,7 +9692,7 @@
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A671" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B671" s="4">
         <v>1</v>
@@ -9698,7 +9700,7 @@
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A672" s="2" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B672" s="4">
         <v>0</v>
@@ -9706,7 +9708,7 @@
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A673" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B673" s="4">
         <v>0</v>
@@ -9714,7 +9716,7 @@
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A674" s="2" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B674" s="4">
         <v>1</v>
@@ -9722,7 +9724,7 @@
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A675" s="2" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B675" s="4">
         <v>1</v>
@@ -9730,7 +9732,7 @@
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A676" s="2" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B676" s="4">
         <v>0</v>
@@ -9738,7 +9740,7 @@
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A677" s="2" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B677" s="4">
         <v>0</v>
@@ -9746,7 +9748,7 @@
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A678" s="2" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B678" s="4">
         <v>0</v>
@@ -9754,7 +9756,7 @@
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A679" s="2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B679" s="4">
         <v>1</v>
@@ -9762,7 +9764,7 @@
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A680" s="2" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B680" s="4">
         <v>1</v>
@@ -9770,7 +9772,7 @@
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A681" s="2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B681" s="4">
         <v>1</v>
@@ -9778,7 +9780,7 @@
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A682" s="2" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B682" s="4">
         <v>1</v>
@@ -9786,7 +9788,7 @@
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A683" s="2" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B683" s="4">
         <v>1</v>
@@ -9794,7 +9796,7 @@
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A684" s="2" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B684" s="4">
         <v>1</v>
@@ -9802,7 +9804,7 @@
     </row>
     <row r="685" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A685" s="2" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B685" s="4">
         <v>1</v>
@@ -9810,7 +9812,7 @@
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A686" s="2" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B686" s="4">
         <v>0</v>
@@ -9818,7 +9820,7 @@
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A687" s="2" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B687" s="4">
         <v>1</v>
@@ -9826,7 +9828,7 @@
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A688" s="2" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B688" s="4">
         <v>1</v>
@@ -9834,7 +9836,7 @@
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A689" s="2" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B689" s="4">
         <v>1</v>
@@ -9842,7 +9844,7 @@
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A690" s="2" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B690" s="4">
         <v>1</v>
@@ -9850,7 +9852,7 @@
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A691" s="2" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B691" s="4">
         <v>1</v>
@@ -9858,7 +9860,7 @@
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A692" s="2" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B692" s="4">
         <v>1</v>
@@ -9866,7 +9868,7 @@
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A693" s="2" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B693" s="4">
         <v>1</v>
@@ -9874,7 +9876,7 @@
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A694" s="2" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B694" s="4">
         <v>1</v>
@@ -9882,7 +9884,7 @@
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A695" s="2" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B695" s="4">
         <v>1</v>
@@ -9890,7 +9892,7 @@
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A696" s="2" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B696" s="4">
         <v>1</v>
@@ -9898,7 +9900,7 @@
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A697" s="2" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B697" s="4">
         <v>1</v>
@@ -9906,7 +9908,7 @@
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A698" s="2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B698" s="4">
         <v>0</v>
@@ -9914,7 +9916,7 @@
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A699" s="2" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B699" s="4">
         <v>1</v>
@@ -9922,7 +9924,7 @@
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A700" s="2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B700" s="4">
         <v>1</v>
@@ -9930,7 +9932,7 @@
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A701" s="2" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B701" s="4">
         <v>0</v>
@@ -9938,7 +9940,7 @@
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A702" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B702" s="4">
         <v>0</v>
@@ -9946,7 +9948,7 @@
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A703" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B703" s="4">
         <v>0</v>
@@ -9954,7 +9956,7 @@
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A704" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B704" s="4">
         <v>0</v>
@@ -9962,7 +9964,7 @@
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A705" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B705" s="4">
         <v>0</v>
@@ -9970,7 +9972,7 @@
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A706" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B706" s="4">
         <v>1</v>
@@ -9978,7 +9980,7 @@
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A707" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B707" s="4">
         <v>1</v>
@@ -9986,7 +9988,7 @@
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A708" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B708" s="4">
         <v>0</v>
@@ -9994,7 +9996,7 @@
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A709" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B709" s="4">
         <v>0</v>
@@ -10002,7 +10004,7 @@
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A710" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B710" s="4">
         <v>1</v>
@@ -10010,7 +10012,7 @@
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A711" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B711" s="4">
         <v>1</v>
@@ -10018,7 +10020,7 @@
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A712" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B712" s="4">
         <v>0</v>
@@ -10026,7 +10028,7 @@
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A713" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B713" s="4">
         <v>0</v>
@@ -10034,7 +10036,7 @@
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A714" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B714" s="4">
         <v>0</v>
@@ -10042,7 +10044,7 @@
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A715" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B715" s="4">
         <v>1</v>
@@ -10050,7 +10052,7 @@
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A716" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B716" s="4">
         <v>1</v>
@@ -10058,7 +10060,7 @@
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A717" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B717" s="4">
         <v>1</v>
@@ -10066,7 +10068,7 @@
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A718" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B718" s="4">
         <v>1</v>
@@ -10074,7 +10076,7 @@
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A719" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B719" s="4">
         <v>1</v>
@@ -10082,7 +10084,7 @@
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A720" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B720" s="4">
         <v>1</v>
@@ -10090,7 +10092,7 @@
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A721" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B721" s="4">
         <v>1</v>
@@ -10098,7 +10100,7 @@
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A722" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B722" s="4">
         <v>1</v>
@@ -10106,7 +10108,7 @@
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A723" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B723" s="4">
         <v>1</v>
@@ -10114,7 +10116,7 @@
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A724" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B724" s="4">
         <v>0</v>
@@ -10122,7 +10124,7 @@
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A725" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B725" s="4">
         <v>0</v>
@@ -10130,7 +10132,7 @@
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A726" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B726" s="4">
         <v>1</v>
@@ -10138,7 +10140,7 @@
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A727" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B727" s="4">
         <v>1</v>
@@ -10146,7 +10148,7 @@
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A728" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B728" s="4">
         <v>1</v>
@@ -10154,7 +10156,7 @@
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A729" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B729" s="4">
         <v>0</v>
@@ -10162,7 +10164,7 @@
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A730" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B730" s="4">
         <v>1</v>
@@ -10170,7 +10172,7 @@
     </row>
     <row r="731" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A731" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B731" s="4">
         <v>1</v>
@@ -10178,7 +10180,7 @@
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A732" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B732" s="4">
         <v>1</v>
@@ -10186,7 +10188,7 @@
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A733" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B733" s="4">
         <v>1</v>
@@ -10194,7 +10196,7 @@
     </row>
     <row r="734" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A734" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B734" s="4">
         <v>0</v>
@@ -10202,7 +10204,7 @@
     </row>
     <row r="735" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A735" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B735" s="4">
         <v>1</v>
@@ -10210,7 +10212,7 @@
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A736" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B736" s="4">
         <v>0</v>
@@ -10218,7 +10220,7 @@
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A737" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B737" s="4">
         <v>1</v>
@@ -10226,7 +10228,7 @@
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A738" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B738" s="4">
         <v>0</v>
@@ -10234,7 +10236,7 @@
     </row>
     <row r="739" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A739" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B739" s="4">
         <v>1</v>
@@ -10242,7 +10244,7 @@
     </row>
     <row r="740" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A740" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B740" s="4">
         <v>0</v>
@@ -10250,7 +10252,7 @@
     </row>
     <row r="741" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A741" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B741" s="4">
         <v>0</v>
@@ -10258,7 +10260,7 @@
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A742" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B742" s="4">
         <v>1</v>
@@ -10266,7 +10268,7 @@
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A743" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B743" s="4">
         <v>0</v>
@@ -10274,7 +10276,7 @@
     </row>
     <row r="744" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A744" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B744" s="4">
         <v>1</v>
@@ -10282,7 +10284,7 @@
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A745" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B745" s="4">
         <v>1</v>
@@ -10290,7 +10292,7 @@
     </row>
     <row r="746" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A746" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B746" s="4">
         <v>1</v>
@@ -10298,7 +10300,7 @@
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A747" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B747" s="4">
         <v>1</v>
@@ -10306,7 +10308,7 @@
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A748" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B748" s="4">
         <v>1</v>
@@ -10314,7 +10316,7 @@
     </row>
     <row r="749" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A749" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B749" s="4">
         <v>0</v>
@@ -10322,7 +10324,7 @@
     </row>
     <row r="750" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A750" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B750" s="4">
         <v>1</v>
@@ -10330,7 +10332,7 @@
     </row>
     <row r="751" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A751" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B751" s="4">
         <v>0</v>
@@ -10338,7 +10340,7 @@
     </row>
     <row r="752" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A752" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B752" s="4">
         <v>0</v>
@@ -10346,7 +10348,7 @@
     </row>
     <row r="753" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A753" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B753" s="4">
         <v>1</v>
@@ -10354,7 +10356,7 @@
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A754" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B754" s="4">
         <v>0</v>
@@ -10362,7 +10364,7 @@
     </row>
     <row r="755" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A755" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B755" s="4">
         <v>0</v>
@@ -10370,7 +10372,7 @@
     </row>
     <row r="756" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A756" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B756" s="4">
         <v>0</v>
@@ -10378,7 +10380,7 @@
     </row>
     <row r="757" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A757" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B757" s="4">
         <v>1</v>
@@ -10386,7 +10388,7 @@
     </row>
     <row r="758" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A758" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B758" s="4">
         <v>1</v>
@@ -10394,7 +10396,7 @@
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A759" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B759" s="4">
         <v>1</v>
@@ -10402,7 +10404,7 @@
     </row>
     <row r="760" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A760" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B760" s="4">
         <v>1</v>
@@ -10410,7 +10412,7 @@
     </row>
     <row r="761" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A761" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B761" s="4">
         <v>0</v>
@@ -10418,7 +10420,7 @@
     </row>
     <row r="762" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A762" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B762" s="4">
         <v>1</v>
@@ -10426,7 +10428,7 @@
     </row>
     <row r="763" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A763" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B763" s="4">
         <v>1</v>
@@ -10434,7 +10436,7 @@
     </row>
     <row r="764" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A764" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B764" s="4">
         <v>0</v>
@@ -10442,7 +10444,7 @@
     </row>
     <row r="765" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A765" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B765" s="4">
         <v>0</v>
@@ -10450,7 +10452,7 @@
     </row>
     <row r="766" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A766" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B766" s="4">
         <v>0</v>
@@ -10458,7 +10460,7 @@
     </row>
     <row r="767" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A767" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B767" s="4">
         <v>0</v>
@@ -10466,7 +10468,7 @@
     </row>
     <row r="768" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A768" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B768" s="4">
         <v>0</v>
@@ -10474,7 +10476,7 @@
     </row>
     <row r="769" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A769" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B769" s="4">
         <v>1</v>
@@ -10482,7 +10484,7 @@
     </row>
     <row r="770" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A770" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B770" s="4">
         <v>0</v>
@@ -10490,7 +10492,7 @@
     </row>
     <row r="771" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A771" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B771" s="4">
         <v>1</v>
@@ -10498,7 +10500,7 @@
     </row>
     <row r="772" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A772" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B772" s="4">
         <v>0</v>
@@ -10506,7 +10508,7 @@
     </row>
     <row r="773" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A773" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B773" s="4">
         <v>0</v>
@@ -10514,7 +10516,7 @@
     </row>
     <row r="774" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A774" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B774" s="4">
         <v>1</v>
@@ -10522,7 +10524,7 @@
     </row>
     <row r="775" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A775" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B775" s="4">
         <v>0</v>
@@ -10530,7 +10532,7 @@
     </row>
     <row r="776" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A776" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B776" s="4">
         <v>0</v>
@@ -10538,7 +10540,7 @@
     </row>
     <row r="777" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A777" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B777" s="4">
         <v>1</v>
@@ -10546,7 +10548,7 @@
     </row>
     <row r="778" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A778" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B778" s="4">
         <v>1</v>
@@ -10554,7 +10556,7 @@
     </row>
     <row r="779" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A779" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B779" s="4">
         <v>1</v>
@@ -10562,7 +10564,7 @@
     </row>
     <row r="780" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A780" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B780" s="4">
         <v>0</v>
@@ -10570,7 +10572,7 @@
     </row>
     <row r="781" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A781" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B781" s="4">
         <v>0</v>
@@ -10578,7 +10580,7 @@
     </row>
     <row r="782" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A782" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B782" s="4">
         <v>0</v>
@@ -10586,7 +10588,7 @@
     </row>
     <row r="783" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A783" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B783" s="4">
         <v>0</v>
@@ -10594,7 +10596,7 @@
     </row>
     <row r="784" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A784" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B784" s="4">
         <v>0</v>
@@ -10602,7 +10604,7 @@
     </row>
     <row r="785" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A785" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B785" s="4">
         <v>0</v>
@@ -10610,7 +10612,7 @@
     </row>
     <row r="786" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A786" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B786" s="4">
         <v>0</v>
@@ -10618,7 +10620,7 @@
     </row>
     <row r="787" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A787" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B787" s="4">
         <v>0</v>
@@ -10626,7 +10628,7 @@
     </row>
     <row r="788" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A788" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B788" s="4">
         <v>0</v>
@@ -10634,7 +10636,7 @@
     </row>
     <row r="789" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A789" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B789" s="4">
         <v>1</v>
@@ -10642,7 +10644,7 @@
     </row>
     <row r="790" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A790" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B790" s="4">
         <v>0</v>
@@ -10650,7 +10652,7 @@
     </row>
     <row r="791" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A791" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B791" s="4">
         <v>0</v>
@@ -10658,7 +10660,7 @@
     </row>
     <row r="792" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A792" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B792" s="4">
         <v>0</v>
@@ -10666,7 +10668,7 @@
     </row>
     <row r="793" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A793" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B793" s="4">
         <v>0</v>
@@ -10674,7 +10676,7 @@
     </row>
     <row r="794" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A794" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B794" s="4">
         <v>0</v>
@@ -10682,7 +10684,7 @@
     </row>
     <row r="795" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A795" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B795" s="4">
         <v>0</v>
@@ -10690,7 +10692,7 @@
     </row>
     <row r="796" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A796" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B796" s="4">
         <v>0</v>
@@ -10698,7 +10700,7 @@
     </row>
     <row r="797" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A797" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B797" s="4">
         <v>0</v>
@@ -10706,7 +10708,7 @@
     </row>
     <row r="798" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A798" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B798" s="4">
         <v>1</v>
@@ -10714,7 +10716,7 @@
     </row>
     <row r="799" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A799" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B799" s="4">
         <v>0</v>
@@ -10722,7 +10724,7 @@
     </row>
     <row r="800" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A800" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B800" s="4">
         <v>0</v>
@@ -10730,7 +10732,7 @@
     </row>
     <row r="801" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A801" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B801" s="4">
         <v>0</v>
@@ -10738,7 +10740,7 @@
     </row>
     <row r="802" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A802" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B802" s="4">
         <v>0</v>
@@ -10746,7 +10748,7 @@
     </row>
     <row r="803" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A803" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B803" s="4">
         <v>0</v>
@@ -10754,7 +10756,7 @@
     </row>
     <row r="804" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A804" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B804" s="4">
         <v>0</v>
@@ -10762,7 +10764,7 @@
     </row>
     <row r="805" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A805" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B805" s="4">
         <v>0</v>
@@ -10770,7 +10772,7 @@
     </row>
     <row r="806" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A806" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B806" s="4">
         <v>0</v>
@@ -10778,7 +10780,7 @@
     </row>
     <row r="807" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A807" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B807" s="4">
         <v>1</v>
@@ -10786,7 +10788,7 @@
     </row>
     <row r="808" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A808" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B808" s="4">
         <v>0</v>
@@ -10794,7 +10796,7 @@
     </row>
     <row r="809" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A809" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B809" s="4">
         <v>1</v>
@@ -10802,7 +10804,7 @@
     </row>
     <row r="810" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A810" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B810" s="4">
         <v>0</v>
@@ -10810,7 +10812,7 @@
     </row>
     <row r="811" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A811" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B811" s="4">
         <v>0</v>
@@ -10818,7 +10820,7 @@
     </row>
     <row r="812" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A812" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="B812" s="4">
         <v>0</v>
@@ -10826,7 +10828,7 @@
     </row>
     <row r="813" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A813" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B813" s="4">
         <v>0</v>
@@ -10834,7 +10836,7 @@
     </row>
     <row r="814" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A814" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B814" s="4">
         <v>0</v>
@@ -10842,7 +10844,7 @@
     </row>
     <row r="815" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A815" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B815" s="4">
         <v>0</v>
@@ -10850,7 +10852,7 @@
     </row>
     <row r="816" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A816" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B816" s="4">
         <v>0</v>
@@ -10858,7 +10860,7 @@
     </row>
     <row r="817" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A817" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B817" s="4">
         <v>0</v>
@@ -10866,7 +10868,7 @@
     </row>
     <row r="818" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A818" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B818" s="4">
         <v>0</v>
@@ -10874,7 +10876,7 @@
     </row>
     <row r="819" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A819" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B819" s="4">
         <v>0</v>
@@ -10882,7 +10884,7 @@
     </row>
     <row r="820" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A820" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B820" s="4">
         <v>1</v>
@@ -10890,7 +10892,7 @@
     </row>
     <row r="821" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A821" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B821" s="4">
         <v>1</v>
@@ -10898,7 +10900,7 @@
     </row>
     <row r="822" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A822" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B822" s="4">
         <v>1</v>
@@ -10906,7 +10908,7 @@
     </row>
     <row r="823" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A823" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B823" s="4">
         <v>1</v>
@@ -10914,7 +10916,7 @@
     </row>
     <row r="824" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A824" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B824" s="4">
         <v>1</v>
@@ -10922,7 +10924,7 @@
     </row>
     <row r="825" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A825" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B825" s="4">
         <v>1</v>
@@ -10930,7 +10932,7 @@
     </row>
     <row r="826" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A826" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B826" s="4">
         <v>0</v>
@@ -10938,7 +10940,7 @@
     </row>
     <row r="827" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A827" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B827" s="4">
         <v>1</v>
@@ -10946,7 +10948,7 @@
     </row>
     <row r="828" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A828" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B828" s="4">
         <v>0</v>
@@ -10954,7 +10956,7 @@
     </row>
     <row r="829" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A829" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B829" s="4">
         <v>0</v>
@@ -10962,7 +10964,7 @@
     </row>
     <row r="830" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A830" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B830" s="4">
         <v>0</v>
@@ -10970,7 +10972,7 @@
     </row>
     <row r="831" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A831" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B831" s="4">
         <v>0</v>
@@ -10978,7 +10980,7 @@
     </row>
     <row r="832" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A832" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B832" s="4">
         <v>0</v>
@@ -10986,7 +10988,7 @@
     </row>
     <row r="833" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A833" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B833" s="4">
         <v>1</v>
@@ -10994,7 +10996,7 @@
     </row>
     <row r="834" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A834" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B834" s="4">
         <v>0</v>
@@ -11002,7 +11004,7 @@
     </row>
     <row r="835" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A835" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B835" s="4">
         <v>1</v>
@@ -11010,7 +11012,7 @@
     </row>
     <row r="836" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A836" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B836" s="4">
         <v>0</v>
@@ -11018,7 +11020,7 @@
     </row>
     <row r="837" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A837" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B837" s="4">
         <v>0</v>
@@ -11026,7 +11028,7 @@
     </row>
     <row r="838" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A838" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B838" s="4">
         <v>1</v>
@@ -11034,7 +11036,7 @@
     </row>
     <row r="839" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A839" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B839" s="4">
         <v>0</v>
@@ -11042,7 +11044,7 @@
     </row>
     <row r="840" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A840" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B840" s="4">
         <v>1</v>
@@ -11050,7 +11052,7 @@
     </row>
     <row r="841" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A841" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B841" s="4">
         <v>1</v>
@@ -11058,7 +11060,7 @@
     </row>
     <row r="842" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A842" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B842" s="4">
         <v>0</v>
@@ -11066,7 +11068,7 @@
     </row>
     <row r="843" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A843" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B843" s="4">
         <v>1</v>
@@ -11074,7 +11076,7 @@
     </row>
     <row r="844" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A844" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B844" s="4">
         <v>1</v>
@@ -11082,7 +11084,7 @@
     </row>
     <row r="845" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A845" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B845" s="4">
         <v>1</v>
@@ -11090,7 +11092,7 @@
     </row>
     <row r="846" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A846" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B846" s="4">
         <v>0</v>
@@ -11098,7 +11100,7 @@
     </row>
     <row r="847" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A847" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B847" s="4">
         <v>0</v>
@@ -11106,7 +11108,7 @@
     </row>
     <row r="848" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A848" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B848" s="4">
         <v>0</v>
@@ -11114,7 +11116,7 @@
     </row>
     <row r="849" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A849" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="B849" s="4">
         <v>1</v>
@@ -11122,7 +11124,7 @@
     </row>
     <row r="850" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A850" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B850" s="4">
         <v>1</v>
@@ -11130,7 +11132,7 @@
     </row>
     <row r="851" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A851" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B851" s="4">
         <v>1</v>
@@ -11138,7 +11140,7 @@
     </row>
     <row r="852" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A852" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="B852" s="4">
         <v>1</v>
@@ -11146,7 +11148,7 @@
     </row>
     <row r="853" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A853" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B853" s="4">
         <v>1</v>
@@ -11154,7 +11156,7 @@
     </row>
     <row r="854" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A854" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B854" s="4">
         <v>1</v>
@@ -11162,7 +11164,7 @@
     </row>
     <row r="855" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A855" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B855" s="4">
         <v>1</v>
@@ -11170,7 +11172,7 @@
     </row>
     <row r="856" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A856" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B856" s="4">
         <v>1</v>
@@ -11178,7 +11180,7 @@
     </row>
     <row r="857" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A857" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B857" s="4">
         <v>1</v>
@@ -11186,7 +11188,7 @@
     </row>
     <row r="858" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A858" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B858" s="4">
         <v>0</v>
@@ -11194,7 +11196,7 @@
     </row>
     <row r="859" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A859" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B859" s="4">
         <v>0</v>
@@ -11202,7 +11204,7 @@
     </row>
     <row r="860" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A860" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B860" s="4">
         <v>1</v>
@@ -11210,7 +11212,7 @@
     </row>
     <row r="861" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A861" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B861" s="4">
         <v>1</v>
@@ -11218,7 +11220,7 @@
     </row>
     <row r="862" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A862" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B862" s="4">
         <v>1</v>
@@ -11226,7 +11228,7 @@
     </row>
     <row r="863" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A863" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B863" s="4">
         <v>0</v>
@@ -11234,7 +11236,7 @@
     </row>
     <row r="864" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A864" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B864" s="4">
         <v>1</v>
@@ -11242,7 +11244,7 @@
     </row>
     <row r="865" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A865" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B865" s="4">
         <v>1</v>
@@ -11250,7 +11252,7 @@
     </row>
     <row r="866" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A866" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B866" s="4">
         <v>0</v>
@@ -11258,7 +11260,7 @@
     </row>
     <row r="867" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A867" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B867" s="4">
         <v>1</v>
@@ -11266,7 +11268,7 @@
     </row>
     <row r="868" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A868" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B868" s="4">
         <v>1</v>
@@ -11274,7 +11276,7 @@
     </row>
     <row r="869" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A869" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B869" s="4">
         <v>1</v>
@@ -11282,7 +11284,7 @@
     </row>
     <row r="870" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A870" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B870" s="4">
         <v>1</v>
@@ -11290,7 +11292,7 @@
     </row>
     <row r="871" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A871" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B871" s="4">
         <v>0</v>
@@ -11298,7 +11300,7 @@
     </row>
     <row r="872" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A872" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B872" s="4">
         <v>0</v>
@@ -11306,7 +11308,7 @@
     </row>
     <row r="873" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A873" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B873" s="4">
         <v>1</v>
@@ -11314,7 +11316,7 @@
     </row>
     <row r="874" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A874" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B874" s="4">
         <v>1</v>
@@ -11322,7 +11324,7 @@
     </row>
     <row r="875" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A875" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B875" s="4">
         <v>0</v>
@@ -11330,7 +11332,7 @@
     </row>
     <row r="876" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A876" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B876" s="4">
         <v>0</v>
@@ -11338,7 +11340,7 @@
     </row>
     <row r="877" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A877" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="B877" s="4">
         <v>1</v>
@@ -11346,7 +11348,7 @@
     </row>
     <row r="878" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A878" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="B878" s="4">
         <v>1</v>
@@ -11354,7 +11356,7 @@
     </row>
     <row r="879" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A879" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B879" s="4">
         <v>0</v>
@@ -11362,7 +11364,7 @@
     </row>
     <row r="880" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A880" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B880" s="4">
         <v>0</v>
@@ -11370,7 +11372,7 @@
     </row>
     <row r="881" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A881" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B881" s="4">
         <v>0</v>
@@ -11378,7 +11380,7 @@
     </row>
     <row r="882" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A882" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="B882" s="4">
         <v>1</v>
@@ -11386,7 +11388,7 @@
     </row>
     <row r="883" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A883" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B883" s="4">
         <v>0</v>
@@ -11394,7 +11396,7 @@
     </row>
     <row r="884" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A884" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B884" s="4">
         <v>0</v>
@@ -11402,7 +11404,7 @@
     </row>
     <row r="885" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A885" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B885" s="4">
         <v>0</v>
@@ -11410,7 +11412,7 @@
     </row>
     <row r="886" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A886" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B886" s="4">
         <v>0</v>
@@ -11418,7 +11420,7 @@
     </row>
     <row r="887" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A887" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B887" s="4">
         <v>0</v>
@@ -11426,7 +11428,7 @@
     </row>
     <row r="888" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A888" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B888" s="4">
         <v>1</v>
@@ -11434,7 +11436,7 @@
     </row>
     <row r="889" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A889" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B889" s="4">
         <v>1</v>
@@ -11442,7 +11444,7 @@
     </row>
     <row r="890" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A890" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B890" s="4">
         <v>0</v>
@@ -11450,7 +11452,7 @@
     </row>
     <row r="891" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A891" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B891" s="4">
         <v>1</v>
@@ -11458,7 +11460,7 @@
     </row>
     <row r="892" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A892" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B892" s="4">
         <v>1</v>
@@ -11466,7 +11468,7 @@
     </row>
     <row r="893" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A893" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="B893" s="4">
         <v>0</v>
@@ -11474,7 +11476,7 @@
     </row>
     <row r="894" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A894" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B894" s="4">
         <v>1</v>
@@ -11482,7 +11484,7 @@
     </row>
     <row r="895" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A895" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="B895" s="4">
         <v>0</v>
@@ -11490,7 +11492,7 @@
     </row>
     <row r="896" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A896" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B896" s="4">
         <v>0</v>
@@ -11498,7 +11500,7 @@
     </row>
     <row r="897" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A897" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B897" s="4">
         <v>0</v>
@@ -11506,7 +11508,7 @@
     </row>
     <row r="898" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A898" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B898" s="4">
         <v>0</v>
@@ -11514,7 +11516,7 @@
     </row>
     <row r="899" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A899" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B899" s="4">
         <v>0</v>
@@ -11522,7 +11524,7 @@
     </row>
     <row r="900" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A900" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B900" s="4">
         <v>1</v>
@@ -11530,7 +11532,7 @@
     </row>
     <row r="901" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A901" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="B901" s="4">
         <v>1</v>
@@ -11538,7 +11540,7 @@
     </row>
     <row r="902" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A902" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="B902" s="4">
         <v>0</v>
@@ -11546,7 +11548,7 @@
     </row>
     <row r="903" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A903" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="B903" s="4">
         <v>1</v>
@@ -11554,7 +11556,7 @@
     </row>
     <row r="904" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A904" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B904" s="4">
         <v>0</v>
@@ -11562,7 +11564,7 @@
     </row>
     <row r="905" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A905" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B905" s="4">
         <v>1</v>
@@ -11570,7 +11572,7 @@
     </row>
     <row r="906" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A906" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B906" s="4">
         <v>1</v>
@@ -11578,7 +11580,7 @@
     </row>
     <row r="907" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A907" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B907" s="4">
         <v>1</v>
@@ -11586,7 +11588,7 @@
     </row>
     <row r="908" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A908" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B908" s="4">
         <v>1</v>
@@ -11594,7 +11596,7 @@
     </row>
     <row r="909" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A909" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="B909" s="4">
         <v>1</v>
@@ -11602,7 +11604,7 @@
     </row>
     <row r="910" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A910" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B910" s="4">
         <v>0</v>
@@ -11610,7 +11612,7 @@
     </row>
     <row r="911" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A911" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="B911" s="4">
         <v>0</v>
@@ -11618,7 +11620,7 @@
     </row>
     <row r="912" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A912" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="B912" s="4">
         <v>1</v>
@@ -11626,7 +11628,7 @@
     </row>
     <row r="913" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A913" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="B913" s="4">
         <v>1</v>
@@ -11634,7 +11636,7 @@
     </row>
     <row r="914" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A914" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B914" s="4">
         <v>1</v>
@@ -11642,7 +11644,7 @@
     </row>
     <row r="915" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A915" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B915" s="4">
         <v>1</v>
@@ -11650,7 +11652,7 @@
     </row>
     <row r="916" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A916" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="B916" s="4">
         <v>0</v>
@@ -11658,7 +11660,7 @@
     </row>
     <row r="917" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A917" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B917" s="4">
         <v>0</v>
@@ -11666,7 +11668,7 @@
     </row>
     <row r="918" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A918" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B918" s="4">
         <v>1</v>
@@ -11674,7 +11676,7 @@
     </row>
     <row r="919" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A919" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B919" s="4">
         <v>1</v>
@@ -11682,7 +11684,7 @@
     </row>
     <row r="920" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A920" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B920" s="4">
         <v>0</v>
@@ -11690,7 +11692,7 @@
     </row>
     <row r="921" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A921" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B921" s="4">
         <v>1</v>
@@ -11698,7 +11700,7 @@
     </row>
     <row r="922" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A922" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B922" s="4">
         <v>1</v>
@@ -11706,7 +11708,7 @@
     </row>
     <row r="923" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A923" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="B923" s="4">
         <v>1</v>
@@ -11714,7 +11716,7 @@
     </row>
     <row r="924" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A924" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B924" s="4">
         <v>1</v>
@@ -11722,7 +11724,7 @@
     </row>
     <row r="925" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A925" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="B925" s="4">
         <v>0</v>
@@ -11730,7 +11732,7 @@
     </row>
     <row r="926" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A926" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="B926" s="4">
         <v>1</v>
@@ -11738,7 +11740,7 @@
     </row>
     <row r="927" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A927" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="B927" s="4">
         <v>0</v>
@@ -11746,7 +11748,7 @@
     </row>
     <row r="928" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A928" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="B928" s="4">
         <v>1</v>
@@ -11754,7 +11756,7 @@
     </row>
     <row r="929" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A929" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="B929" s="4">
         <v>1</v>
@@ -11762,7 +11764,7 @@
     </row>
     <row r="930" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A930" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B930" s="4">
         <v>0</v>
@@ -11770,7 +11772,7 @@
     </row>
     <row r="931" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A931" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B931" s="4">
         <v>0</v>
@@ -11778,7 +11780,7 @@
     </row>
     <row r="932" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A932" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B932" s="4">
         <v>1</v>
@@ -11786,7 +11788,7 @@
     </row>
     <row r="933" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A933" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="B933" s="4">
         <v>0</v>
@@ -11794,7 +11796,7 @@
     </row>
     <row r="934" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A934" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="B934" s="4">
         <v>1</v>
@@ -11802,7 +11804,7 @@
     </row>
     <row r="935" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A935" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B935" s="4">
         <v>0</v>
@@ -11810,7 +11812,7 @@
     </row>
     <row r="936" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A936" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B936" s="4">
         <v>1</v>
@@ -11818,7 +11820,7 @@
     </row>
     <row r="937" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A937" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B937" s="4">
         <v>0</v>
@@ -11826,7 +11828,7 @@
     </row>
     <row r="938" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A938" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B938" s="4">
         <v>0</v>
@@ -11834,7 +11836,7 @@
     </row>
     <row r="939" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A939" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B939" s="4">
         <v>0</v>
@@ -11842,7 +11844,7 @@
     </row>
     <row r="940" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A940" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B940" s="4">
         <v>0</v>
@@ -11850,7 +11852,7 @@
     </row>
     <row r="941" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A941" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="B941" s="4">
         <v>1</v>
@@ -11858,7 +11860,7 @@
     </row>
     <row r="942" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A942" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B942" s="4">
         <v>1</v>
@@ -11866,7 +11868,7 @@
     </row>
     <row r="943" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A943" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="B943" s="4">
         <v>0</v>
@@ -11874,7 +11876,7 @@
     </row>
     <row r="944" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A944" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B944" s="4">
         <v>0</v>
@@ -11882,7 +11884,7 @@
     </row>
     <row r="945" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A945" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B945" s="4">
         <v>1</v>
@@ -11890,7 +11892,7 @@
     </row>
     <row r="946" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A946" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="B946" s="4">
         <v>1</v>
@@ -11898,7 +11900,7 @@
     </row>
     <row r="947" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A947" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B947" s="4">
         <v>1</v>
@@ -11906,7 +11908,7 @@
     </row>
     <row r="948" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A948" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="B948" s="4">
         <v>1</v>
@@ -11914,7 +11916,7 @@
     </row>
     <row r="949" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A949" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B949" s="4">
         <v>1</v>
@@ -11922,7 +11924,7 @@
     </row>
     <row r="950" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A950" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B950" s="4">
         <v>1</v>
@@ -11930,7 +11932,7 @@
     </row>
     <row r="951" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A951" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B951" s="4">
         <v>0</v>
@@ -11938,7 +11940,7 @@
     </row>
     <row r="952" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A952" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B952" s="4">
         <v>0</v>
@@ -11946,7 +11948,7 @@
     </row>
     <row r="953" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A953" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B953" s="4">
         <v>1</v>
@@ -11954,7 +11956,7 @@
     </row>
     <row r="954" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A954" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B954" s="4">
         <v>0</v>
@@ -11962,7 +11964,7 @@
     </row>
     <row r="955" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A955" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="B955" s="4">
         <v>0</v>
@@ -11970,7 +11972,7 @@
     </row>
     <row r="956" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A956" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="B956" s="4">
         <v>1</v>
@@ -11978,7 +11980,7 @@
     </row>
     <row r="957" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A957" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="B957" s="4">
         <v>1</v>
@@ -11986,7 +11988,7 @@
     </row>
     <row r="958" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A958" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="B958" s="4">
         <v>1</v>
@@ -11994,7 +11996,7 @@
     </row>
     <row r="959" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A959" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="B959" s="4">
         <v>1</v>
@@ -12002,7 +12004,7 @@
     </row>
     <row r="960" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A960" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="B960" s="4">
         <v>0</v>
@@ -12010,7 +12012,7 @@
     </row>
     <row r="961" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A961" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="B961" s="4">
         <v>1</v>
@@ -12018,7 +12020,7 @@
     </row>
     <row r="962" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A962" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="B962" s="4">
         <v>1</v>
@@ -12026,7 +12028,7 @@
     </row>
     <row r="963" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A963" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="B963" s="4">
         <v>1</v>
@@ -12034,7 +12036,7 @@
     </row>
     <row r="964" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A964" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="B964" s="4">
         <v>0</v>
@@ -12042,7 +12044,7 @@
     </row>
     <row r="965" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A965" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="B965" s="4">
         <v>1</v>
@@ -12050,7 +12052,7 @@
     </row>
     <row r="966" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A966" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B966" s="4">
         <v>0</v>
@@ -12058,7 +12060,7 @@
     </row>
     <row r="967" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A967" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="B967" s="4">
         <v>1</v>
@@ -12066,7 +12068,7 @@
     </row>
     <row r="968" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A968" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="B968" s="4">
         <v>0</v>
@@ -12074,7 +12076,7 @@
     </row>
     <row r="969" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A969" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="B969" s="4">
         <v>0</v>
@@ -12082,7 +12084,7 @@
     </row>
     <row r="970" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A970" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="B970" s="4">
         <v>0</v>
@@ -12090,7 +12092,7 @@
     </row>
     <row r="971" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A971" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="B971" s="4">
         <v>0</v>
@@ -12098,7 +12100,7 @@
     </row>
     <row r="972" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A972" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="B972" s="4">
         <v>0</v>
@@ -12106,7 +12108,7 @@
     </row>
     <row r="973" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A973" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="B973" s="4">
         <v>1</v>
@@ -12114,7 +12116,7 @@
     </row>
     <row r="974" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A974" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="B974" s="4">
         <v>0</v>
@@ -12122,7 +12124,7 @@
     </row>
     <row r="975" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A975" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="B975" s="4">
         <v>1</v>
@@ -12130,7 +12132,7 @@
     </row>
     <row r="976" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A976" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="B976" s="4">
         <v>1</v>
@@ -12138,7 +12140,7 @@
     </row>
     <row r="977" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A977" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="B977" s="4">
         <v>1</v>
@@ -12146,7 +12148,7 @@
     </row>
     <row r="978" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A978" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="B978" s="4">
         <v>0</v>
@@ -12154,7 +12156,7 @@
     </row>
     <row r="979" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A979" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="B979" s="4">
         <v>1</v>
@@ -12162,7 +12164,7 @@
     </row>
     <row r="980" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A980" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="B980" s="4">
         <v>1</v>
@@ -12170,7 +12172,7 @@
     </row>
     <row r="981" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A981" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="B981" s="4">
         <v>1</v>
@@ -12178,7 +12180,7 @@
     </row>
     <row r="982" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A982" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="B982" s="4">
         <v>1</v>
@@ -12186,7 +12188,7 @@
     </row>
     <row r="983" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A983" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="B983" s="4">
         <v>0</v>
@@ -12194,7 +12196,7 @@
     </row>
     <row r="984" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A984" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="B984" s="4">
         <v>1</v>
@@ -12202,7 +12204,7 @@
     </row>
     <row r="985" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A985" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="B985" s="4">
         <v>1</v>
@@ -12210,7 +12212,7 @@
     </row>
     <row r="986" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A986" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="B986" s="4">
         <v>1</v>
@@ -12218,7 +12220,7 @@
     </row>
     <row r="987" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A987" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="B987" s="4">
         <v>0</v>
@@ -12226,7 +12228,7 @@
     </row>
     <row r="988" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A988" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="B988" s="4">
         <v>0</v>
@@ -12234,7 +12236,7 @@
     </row>
     <row r="989" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A989" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="B989" s="4">
         <v>1</v>
@@ -12242,7 +12244,7 @@
     </row>
     <row r="990" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A990" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="B990" s="4">
         <v>0</v>
@@ -12250,7 +12252,7 @@
     </row>
     <row r="991" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A991" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="B991" s="4">
         <v>0</v>
@@ -12258,7 +12260,7 @@
     </row>
     <row r="992" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A992" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="B992" s="4">
         <v>0</v>
@@ -12266,7 +12268,7 @@
     </row>
     <row r="993" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A993" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="B993" s="4">
         <v>0</v>
@@ -12274,7 +12276,7 @@
     </row>
     <row r="994" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A994" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="B994" s="4">
         <v>1</v>
@@ -12282,7 +12284,7 @@
     </row>
     <row r="995" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A995" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="B995" s="4">
         <v>0</v>
@@ -12290,7 +12292,7 @@
     </row>
     <row r="996" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A996" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="B996" s="4">
         <v>0</v>
@@ -12298,7 +12300,7 @@
     </row>
     <row r="997" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A997" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="B997" s="4">
         <v>0</v>
@@ -12306,7 +12308,7 @@
     </row>
     <row r="998" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A998" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="B998" s="4">
         <v>0</v>
@@ -12314,7 +12316,7 @@
     </row>
     <row r="999" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A999" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="B999" s="4">
         <v>1</v>
@@ -12322,7 +12324,7 @@
     </row>
     <row r="1000" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1000" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="B1000" s="4">
         <v>0</v>
@@ -12330,7 +12332,7 @@
     </row>
     <row r="1001" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1001" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="B1001" s="4">
         <v>1</v>
@@ -12338,7 +12340,7 @@
     </row>
     <row r="1002" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1002" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="B1002" s="4">
         <v>0</v>
@@ -12346,7 +12348,7 @@
     </row>
     <row r="1003" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1003" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="B1003" s="4">
         <v>0</v>
@@ -12354,7 +12356,7 @@
     </row>
     <row r="1004" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1004" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="B1004" s="4">
         <v>1</v>
@@ -12362,7 +12364,7 @@
     </row>
     <row r="1005" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1005" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="B1005" s="4">
         <v>1</v>
@@ -12370,7 +12372,7 @@
     </row>
     <row r="1006" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1006" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="B1006" s="4">
         <v>1</v>
@@ -12378,7 +12380,7 @@
     </row>
     <row r="1007" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1007" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="B1007" s="4">
         <v>1</v>
@@ -12386,7 +12388,7 @@
     </row>
     <row r="1008" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1008" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="B1008" s="4">
         <v>1</v>
@@ -12394,7 +12396,7 @@
     </row>
     <row r="1009" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1009" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="B1009" s="4">
         <v>0</v>
@@ -12402,7 +12404,7 @@
     </row>
     <row r="1010" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1010" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="B1010" s="4">
         <v>1</v>
@@ -12410,7 +12412,7 @@
     </row>
     <row r="1011" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1011" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="B1011" s="4">
         <v>1</v>
@@ -12418,7 +12420,7 @@
     </row>
     <row r="1012" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1012" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="B1012" s="4">
         <v>0</v>
@@ -12426,7 +12428,7 @@
     </row>
     <row r="1013" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1013" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="B1013" s="4">
         <v>1</v>
@@ -12434,7 +12436,7 @@
     </row>
     <row r="1014" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1014" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="B1014" s="4">
         <v>0</v>
@@ -12442,7 +12444,7 @@
     </row>
     <row r="1015" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1015" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="B1015" s="4">
         <v>0</v>
@@ -12450,7 +12452,7 @@
     </row>
     <row r="1016" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1016" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="B1016" s="4">
         <v>1</v>
@@ -12458,7 +12460,7 @@
     </row>
     <row r="1017" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1017" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="B1017" s="4">
         <v>1</v>
@@ -12466,7 +12468,7 @@
     </row>
     <row r="1018" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1018" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="B1018" s="4">
         <v>0</v>
@@ -12474,7 +12476,7 @@
     </row>
     <row r="1019" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1019" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="B1019" s="4">
         <v>1</v>
@@ -12482,7 +12484,7 @@
     </row>
     <row r="1020" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1020" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="B1020" s="4">
         <v>1</v>
@@ -12490,7 +12492,7 @@
     </row>
     <row r="1021" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1021" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="B1021" s="4">
         <v>1</v>
@@ -12498,7 +12500,7 @@
     </row>
     <row r="1022" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1022" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="B1022" s="4">
         <v>1</v>
@@ -12506,7 +12508,7 @@
     </row>
     <row r="1023" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1023" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="B1023" s="4">
         <v>0</v>
@@ -12514,7 +12516,7 @@
     </row>
     <row r="1024" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1024" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="B1024" s="4">
         <v>0</v>
@@ -12522,7 +12524,7 @@
     </row>
     <row r="1025" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1025" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="B1025" s="4">
         <v>1</v>
@@ -12530,7 +12532,7 @@
     </row>
     <row r="1026" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1026" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="B1026" s="4">
         <v>0</v>
@@ -12538,7 +12540,7 @@
     </row>
     <row r="1027" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1027" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="B1027" s="4">
         <v>1</v>
@@ -12546,7 +12548,7 @@
     </row>
     <row r="1028" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1028" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="B1028" s="4">
         <v>1</v>
@@ -12554,7 +12556,7 @@
     </row>
     <row r="1029" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1029" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B1029" s="4">
         <v>1</v>
@@ -12562,7 +12564,7 @@
     </row>
     <row r="1030" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1030" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="B1030" s="4">
         <v>1</v>
@@ -12570,7 +12572,7 @@
     </row>
     <row r="1031" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1031" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="B1031" s="4">
         <v>0</v>
@@ -12578,7 +12580,7 @@
     </row>
     <row r="1032" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1032" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="B1032" s="4">
         <v>1</v>
@@ -12586,7 +12588,7 @@
     </row>
     <row r="1033" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1033" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="B1033" s="4">
         <v>0</v>
@@ -12594,7 +12596,7 @@
     </row>
     <row r="1034" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1034" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="B1034" s="4">
         <v>0</v>
@@ -12602,7 +12604,7 @@
     </row>
     <row r="1035" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1035" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="B1035" s="4">
         <v>0</v>
@@ -12610,7 +12612,7 @@
     </row>
     <row r="1036" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1036" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="B1036" s="4">
         <v>0</v>
@@ -12618,7 +12620,7 @@
     </row>
     <row r="1037" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1037" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="B1037" s="4">
         <v>0</v>
@@ -12626,7 +12628,7 @@
     </row>
     <row r="1038" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1038" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B1038" s="4">
         <v>1</v>
@@ -12634,7 +12636,7 @@
     </row>
     <row r="1039" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1039" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="B1039" s="4">
         <v>1</v>
@@ -12642,7 +12644,7 @@
     </row>
     <row r="1040" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1040" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="B1040" s="4">
         <v>1</v>
@@ -12650,7 +12652,7 @@
     </row>
     <row r="1041" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1041" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="B1041" s="4">
         <v>0</v>
@@ -12658,7 +12660,7 @@
     </row>
     <row r="1042" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1042" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="B1042" s="4">
         <v>1</v>
@@ -12666,7 +12668,7 @@
     </row>
     <row r="1043" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1043" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="B1043" s="4">
         <v>1</v>
@@ -12674,7 +12676,7 @@
     </row>
     <row r="1044" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1044" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="B1044" s="4">
         <v>1</v>
@@ -12682,7 +12684,7 @@
     </row>
     <row r="1045" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1045" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="B1045" s="4">
         <v>1</v>
@@ -12690,7 +12692,7 @@
     </row>
     <row r="1046" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1046" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="B1046" s="4">
         <v>1</v>
@@ -12698,7 +12700,7 @@
     </row>
     <row r="1047" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1047" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="B1047" s="4">
         <v>1</v>
@@ -12706,7 +12708,7 @@
     </row>
     <row r="1048" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1048" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="B1048" s="4">
         <v>1</v>
@@ -12714,7 +12716,7 @@
     </row>
     <row r="1049" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1049" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="B1049" s="4">
         <v>1</v>
@@ -12722,7 +12724,7 @@
     </row>
     <row r="1050" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1050" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B1050" s="4">
         <v>1</v>
@@ -12730,7 +12732,7 @@
     </row>
     <row r="1051" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1051" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="B1051" s="4">
         <v>0</v>
@@ -12738,7 +12740,7 @@
     </row>
     <row r="1052" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1052" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="B1052" s="4">
         <v>0</v>
@@ -12746,7 +12748,7 @@
     </row>
     <row r="1053" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1053" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="B1053" s="4">
         <v>0</v>
@@ -12754,7 +12756,7 @@
     </row>
     <row r="1054" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1054" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="B1054" s="4">
         <v>1</v>
@@ -12762,7 +12764,7 @@
     </row>
     <row r="1055" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1055" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="B1055" s="4">
         <v>1</v>
@@ -12770,7 +12772,7 @@
     </row>
     <row r="1056" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1056" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="B1056" s="4">
         <v>0</v>
@@ -12778,7 +12780,7 @@
     </row>
     <row r="1057" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1057" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="B1057" s="4">
         <v>0</v>
@@ -12786,7 +12788,7 @@
     </row>
     <row r="1058" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1058" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="B1058" s="4">
         <v>0</v>
@@ -12794,7 +12796,7 @@
     </row>
     <row r="1059" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1059" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="B1059" s="4">
         <v>1</v>
@@ -12802,7 +12804,7 @@
     </row>
     <row r="1060" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1060" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="B1060" s="4">
         <v>0</v>
@@ -12810,7 +12812,7 @@
     </row>
     <row r="1061" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1061" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="B1061" s="4">
         <v>1</v>
@@ -12818,7 +12820,7 @@
     </row>
     <row r="1062" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1062" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="B1062" s="4">
         <v>1</v>
@@ -12826,7 +12828,7 @@
     </row>
     <row r="1063" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1063" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="B1063" s="4">
         <v>1</v>
@@ -12834,7 +12836,7 @@
     </row>
     <row r="1064" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1064" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="B1064" s="4">
         <v>1</v>
@@ -12842,7 +12844,7 @@
     </row>
     <row r="1065" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1065" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="B1065" s="4">
         <v>1</v>
@@ -12850,7 +12852,7 @@
     </row>
     <row r="1066" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1066" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="B1066" s="4">
         <v>1</v>
@@ -12858,7 +12860,7 @@
     </row>
     <row r="1067" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1067" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="B1067" s="4">
         <v>0</v>
@@ -12866,7 +12868,7 @@
     </row>
     <row r="1068" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1068" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="B1068" s="4">
         <v>1</v>
@@ -12874,7 +12876,7 @@
     </row>
     <row r="1069" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1069" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="B1069" s="4">
         <v>1</v>
@@ -12882,7 +12884,7 @@
     </row>
     <row r="1070" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1070" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="B1070" s="4">
         <v>1</v>
@@ -12890,7 +12892,7 @@
     </row>
     <row r="1071" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1071" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="B1071" s="4">
         <v>0</v>
@@ -12898,7 +12900,7 @@
     </row>
     <row r="1072" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1072" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="B1072" s="4">
         <v>0</v>
@@ -12906,7 +12908,7 @@
     </row>
     <row r="1073" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1073" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="B1073" s="4">
         <v>1</v>
@@ -12914,7 +12916,7 @@
     </row>
     <row r="1074" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1074" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="B1074" s="4">
         <v>1</v>
@@ -12922,7 +12924,7 @@
     </row>
     <row r="1075" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1075" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="B1075" s="4">
         <v>1</v>
@@ -12930,7 +12932,7 @@
     </row>
     <row r="1076" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1076" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="B1076" s="4">
         <v>0</v>
@@ -12938,7 +12940,7 @@
     </row>
     <row r="1077" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1077" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="B1077" s="4">
         <v>0</v>
@@ -12946,7 +12948,7 @@
     </row>
     <row r="1078" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1078" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="B1078" s="4">
         <v>1</v>
@@ -12954,7 +12956,7 @@
     </row>
     <row r="1079" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1079" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="B1079" s="4">
         <v>0</v>
@@ -12962,7 +12964,7 @@
     </row>
     <row r="1080" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1080" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="B1080" s="4">
         <v>1</v>
@@ -12970,7 +12972,7 @@
     </row>
     <row r="1081" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1081" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="B1081" s="4">
         <v>0</v>
@@ -12978,7 +12980,7 @@
     </row>
     <row r="1082" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1082" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="B1082" s="4">
         <v>1</v>
@@ -12986,7 +12988,7 @@
     </row>
     <row r="1083" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1083" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="B1083" s="4">
         <v>0</v>
@@ -12994,7 +12996,7 @@
     </row>
     <row r="1084" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1084" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="B1084" s="4">
         <v>0</v>
@@ -13002,7 +13004,7 @@
     </row>
     <row r="1085" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1085" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="B1085" s="4">
         <v>0</v>
@@ -13010,7 +13012,7 @@
     </row>
     <row r="1086" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1086" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B1086" s="4">
         <v>1</v>
@@ -13018,7 +13020,7 @@
     </row>
     <row r="1087" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1087" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="B1087" s="4">
         <v>0</v>
@@ -13026,7 +13028,7 @@
     </row>
     <row r="1088" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1088" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="B1088" s="4">
         <v>0</v>
@@ -13034,7 +13036,7 @@
     </row>
     <row r="1089" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1089" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="B1089" s="4">
         <v>1</v>
@@ -13042,7 +13044,7 @@
     </row>
     <row r="1090" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1090" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="B1090" s="4">
         <v>0</v>
@@ -13050,7 +13052,7 @@
     </row>
     <row r="1091" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1091" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="B1091" s="4">
         <v>1</v>
@@ -13058,7 +13060,7 @@
     </row>
     <row r="1092" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1092" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="B1092" s="4">
         <v>0</v>
@@ -13066,7 +13068,7 @@
     </row>
     <row r="1093" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1093" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="B1093" s="4">
         <v>1</v>
@@ -13074,7 +13076,7 @@
     </row>
     <row r="1094" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1094" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="B1094" s="4">
         <v>0</v>
@@ -13083,5 +13085,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>